--- a/tools/comp_import.xlsx
+++ b/tools/comp_import.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="origins" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="clusters" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="princips" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="equips" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="res" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="422">
   <si>
     <t xml:space="preserve">noble_female</t>
   </si>
@@ -141,6 +142,471 @@
     <t xml:space="preserve">ты не состоишь в Гильдии и, возможно, не имеешь официального статуса. Ты просто знаешь подход к людям. Почему ты выбрала такое занятие? Как ты обучилась всем навыкам? Кто самый важный человек в твоей жизни?</t>
   </si>
   <si>
+    <t xml:space="preserve">courier_male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гордый/жизнерадостный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты на своём месте, занимаешься тем, чем хотел. О чём ты мечтаешь? Насколько рискованные заказы берёшь? Кто особенно ценит твои таланты?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прожигатель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">непоседливый/едкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у тебя была комфортная жизнь, но она оказалась слишком скучна. Как ты жил? Чего тебе не хватает сейчас? Кто хочет тебя вернуть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нахальный/любопытный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты начинал с малого в неблагополучных местах. Как тебе удалось подняться? Какие старые привычки у тебя остались? Кто тебя недолюбливает?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нервный/ворчливый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты жил обычной жизнью… пока не очнулся с имплантом. Чем ты занимался раньше? Что ты помнишь об инциденте? Почему тебе никто не помог?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercenary_male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солдат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нервный/надёжный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты служил в частной или государственной армии. Какой бой ты не можешь забыть? Кто был твоим соратником? Почему ты больше не служишь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телохранитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">невозмутимый/ворчливый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты защищал важное лицо. Почему сейчас ты не с ним? Кто помнит тебя с того времени? Какое воспоминание ты хранишь с той жизни?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Головорез</t>
+  </si>
+  <si>
+    <t xml:space="preserve">циничный/энергичный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты нанимался туда, где требовалась сила. Какая у тебя репутация? О каких поступках ты не любишь вспоминать? Какой наниматель тебе запомнился?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ветеран</t>
+  </si>
+  <si>
+    <t xml:space="preserve">простой/стремительный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">там, откуда ты родом, слабые не выживают. Каков твой дом? Почему ты покинул его? Кого ты оставил там?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tactician_male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Военный офицер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">безжалостный/строгий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты прошёл множество боёв. Что тебе запомнилось в них? Кого ты считал главным противником? Как закончилась твоя служба?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безопасник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">внимательный/ленивый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты работал в силах правопорядка или частной охранной конторе. Чем знаменита твоя работа? Кто был твоим начальником? Почему ты ушёл?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Детектив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">надменный/чудаковатый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у тебя была частная следовательская практика. За какие дела ты брался? Какое так и не смог раскрыть? С каким человеком оно связано?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интеллектуал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">требовательный/весёлый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чем только ты ни занимался, аналитический ум всегда тебя выручал. Как ты связан с криминалом? Какая проблема оказалась тебе не по зубам? Кого ты считаешь своим главным противником?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daredevil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обновлённая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">депрессивная/любознательная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у тебя было всё. Но эта жизнь закончилась. Это твоё решение или обстоятельства? С кем связана перемена? Почему тебя привлекли гонки?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свободная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">решительная/гедонистическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты была на службе, но теперь сама по себе. Что это была за служба? Кем был твой начальник? Какой шрам служба оставила на твоём теле или душе?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">грубая/отзывчивая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты родом из трущоб и всегда участвовала в гонках. Какой случай подарил тебе другую судьбу? Кто близкий остался в прошлом? По чему ты скучаешь, а с чем рада была проситься?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Забывшая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">легкомысленная/нервная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты не помнишь своей прошлой жизни, но знаешь, что любишь скорость. Из-за травмы или чего-то другого? Кто помог тебе освоиться? Какой предмет у тебя есть из прошлой жизни?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Флот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дружелюбный/усталый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты жил на флоте странников. Какой он? Почему ты сейчас не там? Кто близкий остался там?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гордый/непримиримый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты жил на большом корабле или в группе кораблей странников. Что это за общество? Чем ваши традиции отличаются от принятых на флоте? Кто учил тебя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одиночка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нелюдимый/восторженный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты давно путешествуешь один. Тебя изгнали или ты ушёл? Чего ты ищешь? Кого и почему ты не можешь забыть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ассимилированный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">озлобленный/весёлый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты с небольшой группой жил среди обычных людей. Почему? В чём наибольшая странность планетян? Кто помогает тебе сохранить веру?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battlesuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Военный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нервный/остроумный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты прошёл военную кампанию. Что отпечаталось в твоей памяти? Кто был твой командир? Почему тебе больше не место в армии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проницательный/ворчливый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты работал на частное лицо, охранником и не только. Кто это был? Почему ты больше не с ним? Кто был рад, когда ты ушёл?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частный владелец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">меркантильный/любопытный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у тебя свой экзоскелет, ты работал с частными заказами. Откуда он у тебя? Какой заказ тебе запомнился? Кто твой худший наниматель?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Преступник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жестокий/отзывчивый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты использовал экзоскелет для незаконных дел. Для каких? Что вынудило тебя остановиться? Какому человеку ты больше всего навредил?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bountyhunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жестокий/справедливый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тебе надоели ограничения закона, и ты нашёл иной путь. Какой безнаказанный преступник стал последней каплей? Что напоследок сказал напарник? Какой важнейший навык остался с той работы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нервный/мягкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тебе больше не было места на службе, и ты занялся тем, что умеешь. Что произошло? Где ты служил? Кто был твоим старшим офицером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вспыльчивый/свободный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты оставил группировку и стал работать на себя. Что это была за организация? Почему ты ушёл? Кто не согласен с твоим уходом, и почему это проблема?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Любитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">весёлый/усердный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты перепробовал многое, пока не понял — вот твоё призвание. Что тебя привлекает в этом ремесле? Кто тебя ненавидит за него? Какова твоя цель?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supernova_female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заброшенная станция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">самостоятельная/одинокая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тяжело было жить одной, пока тебя не подобрал корабль. Как выглядела станция? Чем ты занималась? Что за человек тебя забрал?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трущобы планеты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">суровая/ранимая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">перед тобой лежал труп, а ты выглядела пострадавшей. Как выглядело тело? Что с тобой было не так? Кто тебе помог?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крупный корабль во время аварии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">смелая/потерянная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Твоя помощь оказалась кстати. Что за корабль и как он пострадал? Что ты сделала? Кто был особенно тебе благодарен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зона отдыха элитного квартала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">капризная/дружелюбная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О тебе позаботились и научили общаться с людьми. Кто о тебе заботился? Что это было за место? Почему ты ушла?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рядом с рушащимся зданием Корпорации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">расчётливая/заботливая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у тебя в вещах было что-то, что связывает тебя с этим зданием. Что? Что ты сделала? Кто дал тебе приют?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открытый космос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нездешняя/компанейская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты в скафандре летела в никуда. Как ты спаслась? Кто тебя нашёл? Как ты относишься к космосу сейчас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cenzor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мрачный/честный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тебе было мало бороться с местным криминалом. Из-за чего ты «пошёл на повышение»? Что сказал начальник? Что в Цензуре совсем по-другому?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мечтатель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">растерянный/оптимистичный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты всегда хотел заниматься достойным делом. Каковы отголоски прежней жизни? Кто о ней напоминает? Какие проблемы у тебя от энтузиазма?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пострадавший</t>
+  </si>
+  <si>
+    <t xml:space="preserve">травмированный/настойчивый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты пострадал от большой угрозы и решил бороться с подобным. Что это была за угроза? Кто помог тебе с ней справиться? Какой была твоя жизнь до этого?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проходимец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">находчивый/вспыльчивый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твоё прошлое темно, но в Цензуре ты нашёл призвание. Кто помог тебе? Чем ты занимался раньше? О чём ты не любишь вспоминать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белая ворона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">весёлая/пугливая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты жила в большом обществе, но покинула его. Почему? Что ты нашла в новой жизни? Кто у тебя остался в прошлой жизни?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одержимая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нервная/энергичная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты всю жизнь хочешь создать нечто важное. Что именно? Что заставляет тебя делать это? Кто тоже ждёт или боится этого?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провинциалка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">упрямая/грубая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из той глуши, откуда ты родом, был только один путь наверх — научиться чему-то полезному. Почему ты выбрала инженерию? К чему ты стремишься? Что за человек тебя заметил и помог?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сотрудница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">холодная/эффектная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты работаешь на важную организацию. Чем необычным она занимается? Почему ты на неё работаешь? Кто твой куратор?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частный врач</t>
+  </si>
+  <si>
+    <t xml:space="preserve">надменная/учтивая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты была врачом влиятельной персоны. Кто это был? Зачем ему был нужен доктор? Почему тебе пришлось уйти?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доктор из клиники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вежливая/усталая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты работала в престижном учреждении. Чем оно выделялось? Что вынудило тебя его покинуть? С кем из коллег у тебя осталась связь и какая?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпольный медик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">самоотверженная/жутковатая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты практиковала в каком-то суровом месте. Почему практика была незаконной? Кто к тебе приходил? Почему ты оставила это?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спасатель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">травмированная/циничная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты спасала людей в экстренных ситуациях: в катастрофах, на поле боя и т.д. Почему ты избрала этот путь? Кого ты не смогла спасти? Что помешало твоей карьере спасателя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juggernaut_female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Победитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">суровая/азартная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты покинула планету в поисках достойного противника. Как и где ты его ищешь? Кого достойного ты победила дома? Кто и почему хочет победить тебя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ищущая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">любопытная/неуёмная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты улетела, желая найти что-то за небом. Что? Почему это так важно? Кто тебя направляет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Увезённая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хитрая/наивная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тебя увезли «внешние». Это сделка или похищение? Кто их возглавлял? Как ты сейчас с ними связана?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изгой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">печальная/оптимистичная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дома не нашлось тебе места. Почему? Кто в этом виноват? Что ты чувствуешь из-за этого?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Адана (Империя)</t>
   </si>
   <si>
@@ -249,40 +715,580 @@
     <t xml:space="preserve">война с Машиной, всё на фронт, дисциплина</t>
   </si>
   <si>
-    <t xml:space="preserve">Смотришь свысока;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действуешь чужими руками;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вступаешь в переговоры и влезаешь в интриги;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Окружаешь себя роскошью и комфортом.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Следуешь Кодексу и пути;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Показываешь преимущества киборгизированного тела;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Должен быть безупречным;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ищешь достойного — как друга, так и врага.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добиваешься своего хитростью и обольщением;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изучаешь людей;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стараешься быть самой заметной и эффектной;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стремишься к красоте.</t>
+    <t xml:space="preserve">Слышащий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты – проводник слова Бездны среди странников.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оберегающий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты — защитник и заботишься о безопасности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сохраняющий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты следишь, чтобы оборудование было исправно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направляющий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты строишь маршруты для кораблей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Встроенный моноклинок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в упор, бесшумное, бронебойное, скрытое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Револьвер XPERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дальняя, мощное, бронебойное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспериментальный парализатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дальняя, нелетальный режим, штатское</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фальшивое ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Только тщательная проверка распознает обман. Потрать 1 Припас и запрограммируй его на новую личность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – можно выбрать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шоковая граната</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и брось гранату ( ближняя, площадное ). Все в зоне поражения дезориентированы на короткое время;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 – дается всегда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маскировочное пальто</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из программируемых материалов. Потрать 1 Припас и быстро смени ему цвет и фасон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прошивка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас и можешь попытаться Взломать любое устройство через свой коммуникатор, если оно в пределах видимости и не далее нескольких метров от тебя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медицинский браслет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы снять Состояние, 2 на Серьёзное или 3 на Критическое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Робот-камердинер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приводит в порядок одежду и имидж клиента. Потрать 1 Припас, чтобы сделать идеальным твой внешний вид или вид соратника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роскошь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и достань ценный предмет. Он может давать возможность или рычаг . Кроме того, у тебя всегда есть красивые и дорогие безделушки, чтобы добавить стиля помещению</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетический щит в перстне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и полностью игнорируй урон от одной атаки. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-end Коммуникатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы твой звонок или передачу невозможно было отследить или расшифровать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Документы на оружие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы всё твоё вооружение (включая импланты) считалось ритуальным и приобрело тег штатское в глазах одних спецслужб или на 1 сцену</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Набор для каллиграфии или бонсай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Успокаивающее занятие. Оно помогает тебе Восстанавливаться, когда Проводишь время. При этом ты можешь потратить Припас и избавиться от психоза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Традиционная шляпа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Со встроенным голопроектором. Потрать 1 Припас, чтобы под шляпой отображалось не твоё лицо, а другое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стилет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(в упор, бесшумное, скрытое, штатское) в виде заколки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пистолет, карманный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ближняя, кодированное, скрытое, штатское)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разрядник, персональный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ближняя, нелетальный режим, скрытое, штатское) в виде элегантного браслета.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Духи с феромонами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы повысить результат с 6— до 7—9, когда Соблазняешь, или чтобы оппонент запомнил тебя только смутно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпионское оборудование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и поставь жучок. Ты слышишь (или даже видишь), что рядом с ним происходит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетический щит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в форме элемента одежды. Потрать 1 Припас и игнорируй весь урон от одной атаки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эффектные аксессуары</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и задай ещё один вопрос, используя Открытое очарование. Собеседник не догадается, что рассказал что-то важное.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Камуфляжная система</t>
+  </si>
+  <si>
+    <t xml:space="preserve">маскировка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прыжковый ранец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прыжок до 15 метров в длину и высоту.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разгрузка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+2 к максимуму Припасов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plusres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Второе оружие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и достань пистолет ( ближняя ) или нож ( в упор ).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гранаты 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и брось гранату ( ближняя, опасное, площадное, умное ). Запрограммируй: она плазменная (игнорирует щиты), светошумовая (нелетальное) или с иными свойствами (на твой выбор).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переносная турель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и установи в подходящем месте. Она будет автоматически защищать сектор ( дальняя, кодированное, очередь, умное ).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реаниматор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас для лечения обычного Состояния, 2 — Серьёзного и 3 — Критического.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пистолет-пулемёт для спецподразделений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ближняя, кодированное, программируемое, штатское )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Турбоплазменный пистолет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(дальняя, бронебойное, игнорирует щиты, нелетальный режим )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карманный детектор лжи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы в течение одного разговора понимать, когда собеседник врёт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кираса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сама разворачивается из маленького рюкзачка. Потрать 1 Припас и получи броню до конца боя. Даёт состояние «Броня повреждена». При получении этого Состояния броня разрушается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мини-лаборатория</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и проведи физикохимический анализ любого объекта. Задай 1 вопрос из хода Ориентируешься или возьми ещё 1 фишку, используя Всё по плану (если анализ помог в планировании операции).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сигара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Помогает тебе сосредоточиться. Потрать 1 Припас и получи +1 к Науке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анализатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и просканируй с небольшого расстояния техническое устройство или робота (включая 1 или несколько его Граней).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«сk0RоSть»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и съешь таблетку. Она действует одну сцену. Скорость реакции невероятно обостряется. Когда Навигатор объявляет результат твоего действия, ты один раз за сцену можешь перебить его и заявить, что успеваешь среагировать и как-то избежать последствий. Объясни, что именно ты делаешь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Унитул МАК21»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас — «унитул» примет форму инструмента или оружия ближнего боя по твоему выбору.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ховерскейт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и достань скейтборд, способный скользить на высоте до метра над поверхностью земли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зонд-анализатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и запусти небольшую летающую сферу, способную вести наблюдение с записью.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Малый экзоскелет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы увеличить свою мускульную силу на одну сцену.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метаморфин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы избавиться ото всех последствий акклиматизации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переносной гравигенератор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы установить на одну сцену в одном помещении стандартную, усиленную или нулевую гравитацию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тросы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы выстрелить ими на дистанцию до 10м. Тросы могут притягивать к тебе лёгкие предметы или тебя к тяжёлым. Вреда не наносят.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усилители резака</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы твой резак (или подобное оружие) приобрёл теги мощное и точное.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коробка дорогих сигар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и получи +1 к Статусу в одной сцене</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запасной аккумулятор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и восстанови 1 батарею экзоскелета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регенератор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас для лечения обычного Состояния, 2 — Серьёзного</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Счастливая пуля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кинжал с плазменной кромкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(в упор, игнорирует щиты, бесшумный)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пистолет ПРОК-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ближняя, бронебойный, бесшумный )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модифицированный разрядник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ближняя, нелетальный режим, очередь, штатское )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Визуальный анализатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас, когда смотришь через эти «очки» на подозреваемого — если он в розыске, ты получишь его имя, персональные данные и заведённые дела</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маячок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас и прикрепи к цели маячок. Ты засекаешь его с нескольких километров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перчатка-гарпун</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ближняя): потрать 1 Припас и поймай цель. Она не сможет удалиться от тебя больше, чем на несколько метров, пока трос не перерезан или не отключён</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хамелеон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас. Тебя нельзя увидеть, пока ты не совершаешь резких движений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Финансы 2, Припасы 2, плазменная винтовка (дальняя, игнорирует щиты , очередь ), хамелеон (потрать 1 Припас; ты незаметна пока не делаешь резких движений), какая-то униформа, билет на лайнер до другой планеты, короткое прощальное письмо, небольшой укреплённый контейнер с неизвестным содержимым;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Финансы 1, Припасы 2, кибер-протезы (потрать 1 Припас и сломай небольшой не сопротивляющийся объект) со встроенными лезвиями ( в упор, бронебойное, скрытое ), лохмотья, хлам, загадочное и неработающее устройство</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Финансы 3, Припасы 1, карманный лазер ( ближняя , скрытое, штатское ), дорогие безделушки (потрать 1 Припас и получи рычаг или возможность , если это уместно), шикарная одежда и вещи, ключи от флаера, ID на неизвестного человека</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Финансы 1, Припасы 2, наруч с лазерным генератором ( в упор, ближняя, точное ), энергетический щит ( потрать 1 Припас и игнорируй урон от одной атаки ), вакуумные гранаты (потрать 1 Припас; ближняя, бесшумное, площадь ), комбинезон странного кроя, записка твоим почерком «Извини, мне надо это сделать»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Финансы 2, Припасы 2, пистолет ( ближняя , штатское ), встроенная медсистема (потрать 1 Припас и сними состояние или 2 Припаса — и Серьёзное), чужие вещи, непонятная документация, странная татуировка, шрам от смертельного ранения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наномаска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и измени свою внешность и голос на несколько часов. Подмену можно обнаружить только с помощью специального оборудования.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумка-хамелеон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и достань небольшую сумку с эффектом маскировки. Любой положенный туда предмет считается обладающим тегом скрытый .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юнисканер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и активируй на одну сцену сканер по своему выбору: движения, электромагнитный, инфракрасный. Радиус – Ближняя дистанция.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экстренный набор спасения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас — твой костюм становится герметичным на пару десятков минут. Запас дыхательной смеси на тот же срок прилагается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гипс-пушка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стреляет быстрозастывающим гелем. Потрать 1 Припас, чтобы укрепить или герметизировать поверхность. Когда Идёшь в атаку, можешь обездвижить противника.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платье / дорогой костюм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если ты его надеваешь, получи +1 к Статусу, но -1 к Науке. Потрать 1 Припас, чтобы сменить образ так, что тебя сложно узнать. К нему прилагался контейнер с клубникой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снаряжение прокладчика кабелей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, и можешь медленно передвигаться по стенам и потолку в течение одной сцены.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усиленный лазерный резак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( в упор, ближняя). Потрать 1 Припас, чтобы приобрести до конца боя или сцены любые из тэгов: кровавое, мощное, очередь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адаптант</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, и понизь Некомфортную среду цели на 1. Также она будет потреблять меньше кислорода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адреналин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и приведи цель в сознание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас для лечения обычного Состояния, 2 — Серьёзного и 3 — Критического</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сыворотка правды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и задай цели 1 любой вопрос. Если цель знает ответ, она не сможет его утаить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Концентрирующее</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и дай цели возможность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тоник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, и цель получит +1 на следующий ход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Транквилизатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, и цель заснёт на 3 часа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эндорфин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, и цель успокоится и 3 часа будет ощущать хорошее настроение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ритуальный меч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(в упор, бесшумное, легендарное, штатское) Этот меч сакрален, поэтому с ним разрешают ходить свободно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Импульсный топор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(в упор, бесшумное, двуручное, кровавое, мощное).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Копьё</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(в упор, бесшумное, бронебойное, двуручное, точное).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адреналиновый инъектор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и получи 1 Адреналин. В твоем племени сочли бы позорным его применение, а обычные люди могут быть разочарованы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метательный топор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ближняя, мощное ). Потрать 1 Припас для атаки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Микстура</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По рецепту из твоего дома. Потрать 1 Припас и обостри свои чувства на 1 сцену.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ожерелье из клыков стылого призрака</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить такой клык в подарок считается честью даже за пределами твоего дома. Потрать 1 Припас и получи +2 когда Договариваешься.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">припасы макс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">припасы тек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">финансы макс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фин тек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прибыль макс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прибыль тек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital_dao_male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emissary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psychomant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raelith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">janissary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shadow</t>
   </si>
 </sst>
 </file>
@@ -292,11 +1298,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -312,6 +1319,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,8 +1368,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,13 +1398,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
@@ -561,6 +1577,706 @@
       </c>
       <c r="D12" s="0" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -579,126 +2295,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="37.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="81.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,10 +2423,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,10 +2434,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,10 +2445,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,10 +2456,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,10 +2467,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,10 +2478,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,10 +2489,10 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,16 +2500,456 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>74</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -805,118 +2962,1645 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C85" activeCellId="0" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>238</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>76</v>
+        <v>240</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>77</v>
+        <v>242</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
+      <c r="A4" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>244</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>247</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>80</v>
+        <v>250</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>252</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>13</v>
+      <c r="A8" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>254</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>26</v>
+      <c r="A9" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>256</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>84</v>
+        <v>258</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>26</v>
+      <c r="A11" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>85</v>
+        <v>260</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>86</v>
+      <c r="B16" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/tools/comp_import.xlsx
+++ b/tools/comp_import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="origins" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="598">
   <si>
     <t xml:space="preserve">noble_female</t>
   </si>
@@ -607,6 +607,294 @@
     <t xml:space="preserve">дома не нашлось тебе места. Почему? Кто в этом виноват? Что ты чувствуешь из-за этого?</t>
   </si>
   <si>
+    <t xml:space="preserve">kinetick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Козырь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">исполнительный/непокорный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кто-то могущественный вложил в тебя целое состояние. Что это за человек или организация? Зачем ему это? Ты исполняешь его волю или сбежал?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Волонтёр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мстительный/целеустремлённый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты сам многое отдал ради этих способностей. Зачем они тебе? Чем ты заплатил, и почему цена ещё не уплачена полностью? Кто тебе помог?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самородок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">испуганный/амбициозный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты не знаешь, откуда у тебя способности. Как ты жил раньше? Что странного с тобой происходило перед их появлением? Кто твой близкий?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аномалия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">травмированный/светлый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">способности появились после катастрофы. Какой? Кто ещё в ней пострадал? Что самое важное ты потерял?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital_dao_male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верный сын</t>
+  </si>
+  <si>
+    <t xml:space="preserve">энергичный/уставший</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты пользуешься покровительством старших товарищей. Кого именно? Какое будущее тебе прочат? Почему нелегко следовать их ожиданиям?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бегущий от прошлого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">расчётливый/быстрый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты хотел оставить предыдущую жизнь, приняв Дао. Почему? Как прошлое напоминает о себе? Кто именно не даёт тебе покоя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">старательный/резкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты принял Дао не по собственному желанию. Как так вышло? Почему ты чувствуешь себя чужим в обществе себе подобных? Чьего расположения ты ищешь особенно старательно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потерявший память</t>
+  </si>
+  <si>
+    <t xml:space="preserve">любопытный/мрачный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вживление импланта лишило тебя воспоминаний. Как ты к этому относишься? Какой «привет» из прошлого ты получил? От кого?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emissary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из низов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">благодарный/суровый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты родом из неблагополучного места, и Корпорация — твой шанс. Где ты жил? Кто или что тебе помогло? Как ты хочешь изменить свою жизнь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Должник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дерзкий/стойкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты отрабатываешь долг Корпорации. Как ты оказался должен? Как тебе отработать долг? Кто твой куратор?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карьерист</t>
+  </si>
+  <si>
+    <t xml:space="preserve">азартный/меркантильный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">здесь твоя стихия, ты идёшь к успеху. Как ты попал в Корпорацию? К чему ты стремишься? Кто ставит тебе палки в колёса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внедрившийся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тревожный/циничный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у тебя свои цели в Корпорации, к которым просто так не добраться. Что и зачем ты хочешь найти в Корпорации? Почему этого непросто добиться? Кто и как тебе больше всего мешает?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psychomant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ассистент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заботливая/подозрительная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты была на службе у кого -то влиятельного. Кто он и чем занимается? Как ты к нему относилась? Как твоя служба закончилась?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найденная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">надменная/отзывчивая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тебя нашёл учитель и обучал лично или в академии. Кто это был? Зачем ты ему нужна? Как ты закончила обучение?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Целеустремлённая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">меркантильная/прилежная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты научилась психомантии, потому что только так можно добиться цели. Какой? Чем ты жертвуешь ради неё? Кто тебе мешает?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">независимая/потерянная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты нигде не училась, у тебя талант. Какие главные неудобства от твоих способностей? Где ты их применяешь? Кто особенно в тебе заинтересован?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raelith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потерянная/обозлённая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты не помнишь своей жизни до Машины. Какие обрывки у тебя есть? Кто видится тебе в них? Что может помочь восстановить память?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отчаявшаяся/хитрая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты что-то искала на опасной территории перед встречей с дронами. Что? Почему это важно? Как ты хочешь использовать Машину, чтобы найти это?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гонимая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оптимистичная/мстительная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты пытаешься жить обычной жизнью, но тебе не верят. Как на тебя реагируют? Как ты борешься с образом монстра? Кто вредит тебе больше всего?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сопротивляющаяся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">расчётливая/стойкая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты не сдашься Машине просто так. Как ты себя ведёшь? Какую грань ты не перейдёшь? Кто или что помогает тебе держаться?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">janissary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Близнец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">открытый/незаметный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты — двойник важного человека. Кого именно? Чем он так важен? Зачем ты ему нужен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безупречный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">быстрый/исполнительный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты — часть элитной команды. Чем вы занимались? Как ты к этому относился? Кто вами руководил?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неприкасаемый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">трудолюбивый/вспыльчивый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тебя создавали для презренной работы. Чем тебе суждено было заниматься? Как тебе удалось достичь большего? Кто тебе помог?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Счастливчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">наивный/резкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты жил не очень хорошо, пока тебе не выпал случай влезть в этот «бизнес». Как это вышло? Как ты жил раньше? Кто остался в той жизни?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Делец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жадный/настойчивы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты — бизнесмен, ты понемногу движешься к цели, честно и не очень. Какова твоя цель? Почему ты не гнушаешься авантюр? Кто твой лучший партнёр?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обновлённый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">замкнутый/шутник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у тебя была хорошая жизнь, но ты всё потерял и стал авантюристом. Что и как ты потерял? С кем это связано? Почему выбрал этот путь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мрачный/легкомысленный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты занимался совсем незаконными делами, но решил сбавить обороты. После какого случая? Чем ты знаменит? Кто был твоим подельником?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дитя клана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">верная/забитая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты родилась в клане и не знала другой жизни. Кто твои родители? Чему тебя учили с младенчества? Чем тебя пугает внешний мир?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перебежчица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">корыстная/целеустремлённая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты принадлежала другому клану или секретной организации. Какой? Почему ты сменила верность? Кто тебя за это не простит?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чужачка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">едкая/отзывчивая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты жила какой-то другой жизнью, пока тебя не завербовали. Какой жизнью? Зачем ты клану? Какое самое яркое отличие тебя от тех, кто давно в клане?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Должница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">благодарная/жёсткая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ты работаешь на клан, потому что он помог тебе с тем, с чем ты сама не справилась. Что или кто преследует тебя? Почему? На каких условиях ты в клане?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Адана (Империя)</t>
   </si>
   <si>
@@ -739,6 +1027,30 @@
     <t xml:space="preserve">Ты строишь маршруты для кораблей.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ершалаим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лидирующая, дипломатия, надёжность во всём</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Магадон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">биотехнологии, соц. Технологии, доступность во всём</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Висдегри</t>
+  </si>
+  <si>
+    <t xml:space="preserve">транспорт, логистика, исследование космоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юнити</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дерзкая, передовые технологии, масс-медиа</t>
+  </si>
+  <si>
     <t xml:space="preserve">Встроенный моноклинок</t>
   </si>
   <si>
@@ -1246,6 +1558,246 @@
     <t xml:space="preserve">Получить такой клык в подарок считается честью даже за пределами твоего дома. Потрать 1 Припас и получи +2 когда Договариваешься.</t>
   </si>
   <si>
+    <t xml:space="preserve">Алмазный нож</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можешь прессовать такие из графита. Потрать 1 Припас, чтобы использовать в одном бою ( в упор, бесшумное, бронебойное, скрытое) .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и достань небольшую летающую платформу на реактивной тяге. Такие обычно медленны из-за веса… но не в твоём случае.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имплант L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усиливает концентрацию, но нуждается в перезарядке. Потрать 1 Припас и получи +1, когда действуешь с помощью Гравигена.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Материал для спрессовывания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и возведи небольшую вертикальную или горизонтальную поверхность средней прочности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внешний накопитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и мгновенно очисть 1 ячейку Перегрузки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грозовое облако</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создает отклоняющее снаряды электрическое поле. Потрать 1 Припас и впиши Состояние «Поле отключено» до конца боя. Серьёзным это Состояние быть не может.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инфо-лассо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дотронься этим прибором до любого носителя информации и потрать 1 Припас. Получи на коммуникатор всю информацию с носителя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информационный концентратор (центрик)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и мгновенно получи информацию общего доступа по персоне, явлению или месту (по имени или изображению)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лазер «Грэй-Кейби»-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ближняя, бесшумное, мощное, скрытое, точное) . Имплантирован в твоё тело. Потрать 1 Припас, чтобы активировать его на один бой или сцену</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экранированная батарея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы запитать 1 любой прибор. Его нельзя выключить без твоего желания.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костюм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из синташелка с энергощитом ( потрать 1 Припас и игнорируй урон от одной атаки ). Не пачкается и не рвётся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Летающий бот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас и запусти его. Зонд хранит множество данных, создаёт голограммы, может вести разведку и голозапись</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Локальный терраформатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас. В течение 1 часа на Ближней дистанции вокруг тебя не действуют никакие эффекты Некомфортной или опасной среды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нейрокоммуникатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">работает на расстояний всей системы. Управляется мыслью — потрать 1 Припас, чтобы твой разговор невозможно было обнаружить и отследить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оптинет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">очки, подключённые к инфосети. Потрать 1 Припас и задай 1 вопрос из списка Ориентируешься или увеличь проверку хода Получаешь информацию на 1 категорию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оружейные аксессуары</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас и добавь к пистолету любые 3 тега из: бесшумное, мощное, нелетальное, точное .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Препарат «Prof. X»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усиливает твои мысли. Потрать 1 Припас и передай 1 мысль соратнику, с которым у тебя есть Связь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Препарат «Император»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и распространи действие одной способности на все цели в пределах видимости (если способность можно так применить). После этого получи Серьёзное состояние и потеряй сознание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас для лечения обычного Состояния или 2 — для Серьёзного</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тотемный предмет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Концентрируясь 10 минут, ты можешь восстановить все свои Связи сразу. Потрать 1 Припас</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зонд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">небольшая отделяемая часть тела, которая может летать и вести наблюдение. Потрать 1 Припас для запуска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имплант «7 of 9»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">раэлитская система самоконтроля. После Единения потрать 1 Припас и вспомни, что происходило, пока Машина владела твоим телом. Не работает, когда зачёркнута последняя ячейка Угасания.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пересборка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас и на одну сцену выбери ещё 1 пункт из хода Не-человек . Если взятая Броня оказалась повреждена, её надо чинить прежде, чем делать новую Пересборку. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система «Призрак»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас и заставь все электронные системы наблюдения некоторое время сбоить, вести себя странно и не обнаруживать тебя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергоячейка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потрать 1 Припас и очисти 1 ячейку Угасания, отменив её эффект.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Витальный гель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы снять цели 1 Состояние. Если применяешь на себе, можешь вместо этого получить 1 Пневму.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мутаген</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас, чтобы на 1 сцену поменять значения 2 характеристик. Но для усвоения надо несколько минут.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Органический игломёт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ближняя, бесшумное, скрытое, умное ). Потрать 1 Припас, чтобы игла была отравлена (противник ослабевает и может оказаться парализован).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Священный символ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и подари такой же символ кому-нибудь. Если ему будет грозить беда, ты это почувствуешь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хитиновая броня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и впиши Состояние «Броня повреждена» до конца боя. Серьёзным это Состояние быть не может.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поношенная броня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и получи Броню до конца боя. Даёт состояние «Броня повреждена». При получении этого Состояния броня разрушается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провокационный костюм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и выстави напоказ деталь костюма, которая одних приводит в бешенство, а другим нравится. Выбери НПС и получи его симпатию. Но Навигатор может выбрать НПС, которому эта деталь неприятна. Получи возможность против каждого из них.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Талисман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выручит тебя в трудную минуту. Потрать 1 Припас и восстанови 1 Фортуну.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фальшивые документы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и скажи, на чьё имя у тебя документы сейчас</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плазменный пистолет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ближняя, игнорирует щит, кодированное, точное )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Импульс-ПП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ближняя, бесшумное, очередь, программируемое)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снайперская винтовка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(дальняя, двуручное, мощное, бронебойное)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Голопроектор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и поставь мини-проектор. Пару часов он может создавать иллюзию небольшого объекта или сегмента стены, не отличимую от реальной.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лёгкая броня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и получи броню до конца боя. Даёт состояние «Броня повреждена». При его получении броня разрушается. Не может быть Серьёзным состоянием.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стелс-форсаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маскировочное поле включается мгновенно. Потрать 1 Припас и исчезни бесследно у всех на глазах или повысь результат хода Укрываешься на одну категорию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрать 1 Припас и измени данные, создав себе новую личность</t>
+  </si>
+  <si>
     <t xml:space="preserve">playbook</t>
   </si>
   <si>
@@ -1265,30 +1817,6 @@
   </si>
   <si>
     <t xml:space="preserve">прибыль тек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinetick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital_dao_male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emissary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psychomant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raelith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">janissary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scoundrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shadow</t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1926,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2277,6 +2805,440 @@
       </c>
       <c r="D62" s="0" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2295,10 +3257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2313,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,10 +3385,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,10 +3396,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,10 +3407,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,10 +3418,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,10 +3429,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,10 +3440,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,10 +3451,10 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,10 +3462,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +3473,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,10 +3484,10 @@
         <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,10 +3495,10 @@
         <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,10 +3506,10 @@
         <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,10 +3517,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,10 +3528,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,10 +3539,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,10 +3550,10 @@
         <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,10 +3561,10 @@
         <v>64</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,10 +3572,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,10 +3583,10 @@
         <v>64</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,10 +3594,10 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,10 +3605,10 @@
         <v>77</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,10 +3616,10 @@
         <v>77</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,10 +3627,10 @@
         <v>77</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,10 +3638,10 @@
         <v>77</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,10 +3649,10 @@
         <v>89</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,10 +3660,10 @@
         <v>89</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,10 +3671,10 @@
         <v>89</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,10 +3682,10 @@
         <v>89</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,10 +3693,10 @@
         <v>102</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,10 +3704,10 @@
         <v>102</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,10 +3715,10 @@
         <v>102</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,10 +3726,10 @@
         <v>102</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,10 +3737,10 @@
         <v>114</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,10 +3748,10 @@
         <v>114</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,10 +3759,10 @@
         <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,10 +3770,10 @@
         <v>114</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,10 +3781,10 @@
         <v>143</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,10 +3792,10 @@
         <v>143</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,10 +3803,10 @@
         <v>143</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,10 +3814,10 @@
         <v>143</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,10 +3825,10 @@
         <v>155</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,10 +3836,10 @@
         <v>155</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,10 +3847,10 @@
         <v>155</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,10 +3858,10 @@
         <v>155</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,10 +3869,10 @@
         <v>168</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,10 +3880,10 @@
         <v>168</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,10 +3891,10 @@
         <v>168</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,10 +3902,230 @@
         <v>168</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>229</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2962,10 +4144,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C85" activeCellId="0" sqref="C85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C126" activeCellId="0" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2979,10 +4161,10 @@
         <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>1</v>
@@ -2993,10 +4175,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>240</v>
+        <v>344</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>241</v>
+        <v>345</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -3007,10 +4189,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -3021,16 +4203,16 @@
         <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>246</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,16 +4220,16 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>249</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,10 +4237,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>251</v>
+        <v>355</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -3069,10 +4251,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>252</v>
+        <v>356</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -3083,10 +4265,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>255</v>
+        <v>359</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
@@ -3097,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
@@ -3111,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>258</v>
+        <v>362</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -3125,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>261</v>
+        <v>365</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -3139,10 +4321,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>263</v>
+        <v>367</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -3153,10 +4335,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>265</v>
+        <v>369</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -3167,10 +4349,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>267</v>
+        <v>371</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -3181,10 +4363,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>269</v>
+        <v>373</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -3195,10 +4377,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>270</v>
+        <v>374</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>271</v>
+        <v>375</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -3209,10 +4391,10 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>273</v>
+        <v>377</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -3223,10 +4405,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>274</v>
+        <v>378</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>275</v>
+        <v>379</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
@@ -3237,10 +4419,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -3251,10 +4433,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>278</v>
+        <v>382</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>279</v>
+        <v>383</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
@@ -3265,10 +4447,10 @@
         <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>281</v>
+        <v>385</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
@@ -3279,10 +4461,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>282</v>
+        <v>386</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>283</v>
+        <v>387</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
@@ -3293,10 +4475,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>285</v>
+        <v>389</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
@@ -3307,10 +4489,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>287</v>
+        <v>391</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
@@ -3321,16 +4503,16 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>288</v>
+        <v>392</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>289</v>
+        <v>393</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>290</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3338,10 +4520,10 @@
         <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>291</v>
+        <v>395</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>292</v>
+        <v>396</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
@@ -3352,10 +4534,10 @@
         <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>293</v>
+        <v>397</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
@@ -3366,10 +4548,10 @@
         <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>295</v>
+        <v>399</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
@@ -3380,10 +4562,10 @@
         <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>297</v>
+        <v>401</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
@@ -3394,10 +4576,10 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>299</v>
+        <v>403</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -3408,10 +4590,10 @@
         <v>64</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>302</v>
+        <v>406</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
@@ -3422,10 +4604,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
@@ -3436,10 +4618,10 @@
         <v>64</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>305</v>
+        <v>409</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>306</v>
+        <v>410</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0</v>
@@ -3450,10 +4632,10 @@
         <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>307</v>
+        <v>411</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>308</v>
+        <v>412</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0</v>
@@ -3464,10 +4646,10 @@
         <v>64</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>309</v>
+        <v>413</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>310</v>
+        <v>414</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
@@ -3478,10 +4660,10 @@
         <v>77</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
@@ -3492,10 +4674,10 @@
         <v>77</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>314</v>
+        <v>418</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
@@ -3506,10 +4688,10 @@
         <v>77</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>315</v>
+        <v>419</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>316</v>
+        <v>420</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
@@ -3520,10 +4702,10 @@
         <v>77</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>317</v>
+        <v>421</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>318</v>
+        <v>422</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0</v>
@@ -3534,10 +4716,10 @@
         <v>89</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>319</v>
+        <v>423</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
@@ -3548,10 +4730,10 @@
         <v>89</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>321</v>
+        <v>425</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>322</v>
+        <v>426</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
@@ -3562,10 +4744,10 @@
         <v>89</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>323</v>
+        <v>427</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
@@ -3576,10 +4758,10 @@
         <v>89</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
@@ -3590,10 +4772,10 @@
         <v>89</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>328</v>
+        <v>432</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0</v>
@@ -3604,10 +4786,10 @@
         <v>89</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0</v>
@@ -3618,10 +4800,10 @@
         <v>102</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
@@ -3632,10 +4814,10 @@
         <v>102</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>333</v>
+        <v>437</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0</v>
@@ -3646,10 +4828,10 @@
         <v>102</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>335</v>
+        <v>439</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>336</v>
+        <v>440</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0</v>
@@ -3660,10 +4842,10 @@
         <v>102</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>336</v>
+        <v>440</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0</v>
@@ -3674,10 +4856,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>338</v>
+        <v>442</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>339</v>
+        <v>443</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
@@ -3688,10 +4870,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>340</v>
+        <v>444</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>341</v>
+        <v>445</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
@@ -3702,10 +4884,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>342</v>
+        <v>446</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>343</v>
+        <v>447</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
@@ -3716,10 +4898,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>344</v>
+        <v>448</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>345</v>
+        <v>449</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
@@ -3730,10 +4912,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>346</v>
+        <v>450</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>347</v>
+        <v>451</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0</v>
@@ -3744,10 +4926,10 @@
         <v>114</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>348</v>
+        <v>452</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>349</v>
+        <v>453</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0</v>
@@ -3758,10 +4940,10 @@
         <v>114</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>350</v>
+        <v>454</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>351</v>
+        <v>455</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0</v>
@@ -3772,10 +4954,10 @@
         <v>124</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>352</v>
+        <v>456</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>353</v>
+        <v>457</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
@@ -3786,10 +4968,10 @@
         <v>124</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>354</v>
+        <v>458</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>355</v>
+        <v>459</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
@@ -3800,10 +4982,10 @@
         <v>124</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>356</v>
+        <v>460</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>357</v>
+        <v>461</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
@@ -3814,10 +4996,10 @@
         <v>124</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>358</v>
+        <v>462</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>359</v>
+        <v>463</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
@@ -3828,10 +5010,10 @@
         <v>124</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>360</v>
+        <v>464</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>361</v>
+        <v>465</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
@@ -3842,10 +5024,10 @@
         <v>143</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>362</v>
+        <v>466</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>363</v>
+        <v>467</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>0</v>
@@ -3856,10 +5038,10 @@
         <v>143</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>364</v>
+        <v>468</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>365</v>
+        <v>469</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>0</v>
@@ -3870,10 +5052,10 @@
         <v>143</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>366</v>
+        <v>470</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>367</v>
+        <v>471</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>0</v>
@@ -3884,10 +5066,10 @@
         <v>143</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>368</v>
+        <v>472</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>369</v>
+        <v>473</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
@@ -3898,10 +5080,10 @@
         <v>155</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>370</v>
+        <v>474</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>371</v>
+        <v>475</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
@@ -3912,10 +5094,10 @@
         <v>155</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>372</v>
+        <v>476</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>373</v>
+        <v>477</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0</v>
@@ -3926,10 +5108,10 @@
         <v>155</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>375</v>
+        <v>479</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0</v>
@@ -3940,10 +5122,10 @@
         <v>155</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>376</v>
+        <v>480</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>377</v>
+        <v>481</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>0</v>
@@ -3954,10 +5136,10 @@
         <v>168</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>378</v>
+        <v>482</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>379</v>
+        <v>483</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
@@ -3968,10 +5150,10 @@
         <v>168</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>380</v>
+        <v>484</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>381</v>
+        <v>485</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0</v>
@@ -3982,10 +5164,10 @@
         <v>168</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>297</v>
+        <v>401</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>382</v>
+        <v>486</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>0</v>
@@ -3996,10 +5178,10 @@
         <v>168</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>383</v>
+        <v>487</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>384</v>
+        <v>488</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>0</v>
@@ -4010,10 +5192,10 @@
         <v>168</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>385</v>
+        <v>489</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>386</v>
+        <v>490</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0</v>
@@ -4024,10 +5206,10 @@
         <v>168</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>387</v>
+        <v>491</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>388</v>
+        <v>492</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0</v>
@@ -4038,10 +5220,10 @@
         <v>168</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>389</v>
+        <v>493</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>0</v>
@@ -4052,10 +5234,10 @@
         <v>168</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>391</v>
+        <v>495</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>392</v>
+        <v>496</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0</v>
@@ -4066,10 +5248,10 @@
         <v>181</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
@@ -4080,10 +5262,10 @@
         <v>181</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>395</v>
+        <v>499</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>396</v>
+        <v>500</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
@@ -4094,10 +5276,10 @@
         <v>181</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>398</v>
+        <v>502</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
@@ -4108,10 +5290,10 @@
         <v>181</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>399</v>
+        <v>503</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>0</v>
@@ -4122,10 +5304,10 @@
         <v>181</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>401</v>
+        <v>505</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>402</v>
+        <v>506</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
@@ -4136,10 +5318,10 @@
         <v>181</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>403</v>
+        <v>507</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>404</v>
+        <v>508</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0</v>
@@ -4150,12 +5332,586 @@
         <v>181</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>405</v>
+        <v>509</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>406</v>
+        <v>510</v>
       </c>
       <c r="D84" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="D125" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,7 +5934,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4191,25 +5947,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>407</v>
+        <v>591</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>408</v>
+        <v>592</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>409</v>
+        <v>593</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>411</v>
+        <v>595</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>412</v>
+        <v>596</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>413</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,42 +6315,186 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>414</v>
+        <v>194</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>415</v>
+        <v>207</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>416</v>
+        <v>219</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>417</v>
+        <v>232</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>418</v>
+        <v>244</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>419</v>
+        <v>255</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>420</v>
+        <v>265</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>421</v>
+        <v>277</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tools/comp_import.xlsx
+++ b/tools/comp_import.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="599">
   <si>
     <t xml:space="preserve">noble_female</t>
   </si>
@@ -1057,6 +1057,9 @@
     <t xml:space="preserve">в упор, бесшумное, бронебойное, скрытое</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Револьвер XPERT</t>
   </si>
   <si>
@@ -1207,7 +1210,7 @@
     <t xml:space="preserve">+2 к максимуму Припасов.</t>
   </si>
   <si>
-    <t xml:space="preserve">plusres</t>
+    <t xml:space="preserve">get_res</t>
   </si>
   <si>
     <t xml:space="preserve">Второе оружие</t>
@@ -1928,7 +1931,7 @@
   </sheetPr>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
     </sheetView>
   </sheetViews>
@@ -4146,8 +4149,8 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C126" activeCellId="0" sqref="C126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4169,19 +4172,25 @@
       <c r="D1" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,13 +4198,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,16 +4215,19 @@
         <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>344</v>
+      </c>
       <c r="K4" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,16 +4235,19 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>344</v>
+      </c>
       <c r="K5" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,13 +4255,16 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4251,13 +4272,16 @@
         <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,13 +4289,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4279,13 +4306,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,13 +4323,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,13 +4340,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,13 +4357,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,13 +4374,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,13 +4391,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,13 +4408,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,13 +4425,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,13 +4442,16 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4405,13 +4459,16 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,13 +4476,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,13 +4493,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,13 +4510,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4461,13 +4527,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,13 +4544,16 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,13 +4561,16 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4503,16 +4578,16 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,13 +4595,16 @@
         <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,13 +4612,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,13 +4629,16 @@
         <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,13 +4646,16 @@
         <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,13 +4663,16 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,13 +4680,16 @@
         <v>64</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,13 +4697,16 @@
         <v>64</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,13 +4714,16 @@
         <v>64</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,13 +4731,16 @@
         <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,13 +4748,16 @@
         <v>64</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,13 +4765,16 @@
         <v>77</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,13 +4782,16 @@
         <v>77</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,13 +4799,16 @@
         <v>77</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,13 +4816,16 @@
         <v>77</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,13 +4833,16 @@
         <v>89</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,13 +4850,16 @@
         <v>89</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,13 +4867,16 @@
         <v>89</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4758,13 +4884,16 @@
         <v>89</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,13 +4901,16 @@
         <v>89</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4786,13 +4918,16 @@
         <v>89</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,13 +4935,16 @@
         <v>102</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,13 +4952,16 @@
         <v>102</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,13 +4969,16 @@
         <v>102</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,13 +4986,16 @@
         <v>102</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>440</v>
-      </c>
       <c r="D49" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,13 +5003,16 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,13 +5020,16 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4884,13 +5037,16 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4898,13 +5054,16 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,13 +5071,16 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,13 +5088,16 @@
         <v>114</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,13 +5105,16 @@
         <v>114</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4954,13 +5122,16 @@
         <v>124</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,13 +5139,16 @@
         <v>124</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,13 +5156,16 @@
         <v>124</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,13 +5173,16 @@
         <v>124</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,13 +5190,16 @@
         <v>124</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,13 +5207,16 @@
         <v>143</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,13 +5224,16 @@
         <v>143</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,13 +5241,16 @@
         <v>143</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5066,13 +5258,16 @@
         <v>143</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,13 +5275,16 @@
         <v>155</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,13 +5292,16 @@
         <v>155</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5108,13 +5309,16 @@
         <v>155</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,13 +5326,16 @@
         <v>155</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,13 +5343,16 @@
         <v>168</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,13 +5360,16 @@
         <v>168</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5164,13 +5377,16 @@
         <v>168</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,13 +5394,16 @@
         <v>168</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,13 +5411,16 @@
         <v>168</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,13 +5428,16 @@
         <v>168</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,13 +5445,16 @@
         <v>168</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,13 +5462,16 @@
         <v>168</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,13 +5479,16 @@
         <v>181</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,13 +5496,16 @@
         <v>181</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5276,13 +5513,16 @@
         <v>181</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,13 +5530,16 @@
         <v>181</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,13 +5547,16 @@
         <v>181</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5318,13 +5564,16 @@
         <v>181</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,13 +5581,16 @@
         <v>181</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5346,13 +5598,16 @@
         <v>194</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,13 +5615,16 @@
         <v>194</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,13 +5632,16 @@
         <v>194</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,13 +5649,16 @@
         <v>194</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,13 +5666,16 @@
         <v>207</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,13 +5683,16 @@
         <v>207</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,13 +5700,16 @@
         <v>207</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5444,13 +5717,16 @@
         <v>207</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,13 +5734,16 @@
         <v>207</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,13 +5751,16 @@
         <v>207</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,13 +5768,16 @@
         <v>219</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5500,13 +5785,16 @@
         <v>219</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,13 +5802,16 @@
         <v>219</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,13 +5819,16 @@
         <v>219</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,13 +5836,16 @@
         <v>219</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,13 +5853,16 @@
         <v>219</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5570,13 +5870,16 @@
         <v>232</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,13 +5887,16 @@
         <v>232</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,13 +5904,16 @@
         <v>232</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,13 +5921,16 @@
         <v>232</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5626,13 +5938,16 @@
         <v>244</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,13 +5955,16 @@
         <v>244</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,13 +5972,16 @@
         <v>244</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5668,13 +5989,16 @@
         <v>244</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,13 +6006,16 @@
         <v>244</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,13 +6023,16 @@
         <v>255</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,13 +6040,16 @@
         <v>255</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,13 +6057,16 @@
         <v>255</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5738,13 +6074,16 @@
         <v>255</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,13 +6091,16 @@
         <v>255</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,13 +6108,16 @@
         <v>265</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,13 +6125,16 @@
         <v>265</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5794,13 +6142,16 @@
         <v>265</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,13 +6159,16 @@
         <v>265</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,13 +6176,16 @@
         <v>277</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,13 +6193,16 @@
         <v>277</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,13 +6210,16 @@
         <v>277</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,13 +6227,16 @@
         <v>277</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,13 +6244,16 @@
         <v>277</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,13 +6261,16 @@
         <v>277</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5906,13 +6278,16 @@
         <v>277</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5947,25 +6322,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tools/comp_import.xlsx
+++ b/tools/comp_import.xlsx
@@ -4149,14 +4149,14 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C121" activeCellId="0" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tools/comp_import.xlsx
+++ b/tools/comp_import.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="589">
   <si>
     <t xml:space="preserve">noble_female</t>
   </si>
@@ -973,12 +973,6 @@
     <t xml:space="preserve">«Всё имеет свою цену»</t>
   </si>
   <si>
-    <t xml:space="preserve">Иное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ты жил не на Тао Прайм. А где и почему?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Империя</t>
   </si>
   <si>
@@ -1003,30 +997,6 @@
     <t xml:space="preserve">война с Машиной, всё на фронт, дисциплина</t>
   </si>
   <si>
-    <t xml:space="preserve">Слышащий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ты – проводник слова Бездны среди странников.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оберегающий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ты — защитник и заботишься о безопасности.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сохраняющий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ты следишь, чтобы оборудование было исправно.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Направляющий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ты строишь маршруты для кораблей.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ершалаим</t>
   </si>
   <si>
@@ -1084,7 +1054,7 @@
     <t xml:space="preserve">Шоковая граната</t>
   </si>
   <si>
-    <t xml:space="preserve">Потрать 1 Припас и брось гранату ( ближняя, площадное ). Все в зоне поражения дезориентированы на короткое время;</t>
+    <t xml:space="preserve">Потрать 1 Припас и брось гранату (ближняя, площадное). Все в зоне поражения дезориентированы на короткое время;</t>
   </si>
   <si>
     <t xml:space="preserve">0 – дается всегда</t>
@@ -1216,19 +1186,19 @@
     <t xml:space="preserve">Второе оружие</t>
   </si>
   <si>
-    <t xml:space="preserve">Потрать 1 Припас и достань пистолет ( ближняя ) или нож ( в упор ).</t>
+    <t xml:space="preserve">Потрать 1 Припас и достань пистолет (ближняя) или нож (в упор).</t>
   </si>
   <si>
     <t xml:space="preserve">Гранаты 2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Потрать 1 Припас и брось гранату ( ближняя, опасное, площадное, умное ). Запрограммируй: она плазменная (игнорирует щиты), светошумовая (нелетальное) или с иными свойствами (на твой выбор).</t>
+    <t xml:space="preserve">Потрать 1 Припас и брось гранату (ближняя, опасное, площадное, умное). Запрограммируй: она плазменная (игнорирует щиты), светошумовая (нелетальное) или с иными свойствами (на твой выбор).</t>
   </si>
   <si>
     <t xml:space="preserve">Переносная турель</t>
   </si>
   <si>
-    <t xml:space="preserve">Потрать 1 Припас и установи в подходящем месте. Она будет автоматически защищать сектор ( дальняя, кодированное, очередь, умное ).</t>
+    <t xml:space="preserve">Потрать 1 Припас и установи в подходящем месте. Она будет автоматически защищать сектор (дальняя, кодированное, очередь, умное).</t>
   </si>
   <si>
     <t xml:space="preserve">Реаниматор</t>
@@ -1240,13 +1210,13 @@
     <t xml:space="preserve">Пистолет-пулемёт для спецподразделений</t>
   </si>
   <si>
-    <t xml:space="preserve">(ближняя, кодированное, программируемое, штатское )</t>
+    <t xml:space="preserve">(ближняя, кодированное, программируемое, штатское)</t>
   </si>
   <si>
     <t xml:space="preserve">Турбоплазменный пистолет</t>
   </si>
   <si>
-    <t xml:space="preserve">(дальняя, бронебойное, игнорирует щиты, нелетальный режим )</t>
+    <t xml:space="preserve">(дальняя, бронебойное, игнорирует щиты, нелетальный режим)</t>
   </si>
   <si>
     <t xml:space="preserve">Карманный детектор лжи</t>
@@ -1363,13 +1333,13 @@
     <t xml:space="preserve">Пистолет ПРОК-22</t>
   </si>
   <si>
-    <t xml:space="preserve">(ближняя, бронебойный, бесшумный )</t>
+    <t xml:space="preserve">(ближняя, бронебойный, бесшумный)</t>
   </si>
   <si>
     <t xml:space="preserve">Модифицированный разрядник</t>
   </si>
   <si>
-    <t xml:space="preserve">(ближняя, нелетальный режим, очередь, штатское )</t>
+    <t xml:space="preserve">(ближняя, нелетальный режим, очередь, штатское)</t>
   </si>
   <si>
     <t xml:space="preserve">Визуальный анализатор</t>
@@ -1399,31 +1369,31 @@
     <t xml:space="preserve">sl1</t>
   </si>
   <si>
-    <t xml:space="preserve">Финансы 2, Припасы 2, плазменная винтовка (дальняя, игнорирует щиты , очередь ), хамелеон (потрать 1 Припас; ты незаметна пока не делаешь резких движений), какая-то униформа, билет на лайнер до другой планеты, короткое прощальное письмо, небольшой укреплённый контейнер с неизвестным содержимым;</t>
+    <t xml:space="preserve">Финансы 2, Припасы 2, плазменная винтовка (дальняя, игнорирует щиты , очередь), хамелеон (потрать 1 Припас; ты незаметна пока не делаешь резких движений), какая-то униформа, билет на лайнер до другой планеты, короткое прощальное письмо, небольшой укреплённый контейнер с неизвестным содержимым;</t>
   </si>
   <si>
     <t xml:space="preserve">sl2</t>
   </si>
   <si>
-    <t xml:space="preserve">Финансы 1, Припасы 2, кибер-протезы (потрать 1 Припас и сломай небольшой не сопротивляющийся объект) со встроенными лезвиями ( в упор, бронебойное, скрытое ), лохмотья, хлам, загадочное и неработающее устройство</t>
+    <t xml:space="preserve">Финансы 1, Припасы 2, кибер-протезы (потрать 1 Припас и сломай небольшой не сопротивляющийся объект) со встроенными лезвиями (в упор, бронебойное, скрытое), лохмотья, хлам, загадочное и неработающее устройство</t>
   </si>
   <si>
     <t xml:space="preserve">sl3</t>
   </si>
   <si>
-    <t xml:space="preserve">Финансы 3, Припасы 1, карманный лазер ( ближняя , скрытое, штатское ), дорогие безделушки (потрать 1 Припас и получи рычаг или возможность , если это уместно), шикарная одежда и вещи, ключи от флаера, ID на неизвестного человека</t>
+    <t xml:space="preserve">Финансы 3, Припасы 1, карманный лазер (ближняя , скрытое, штатское), дорогие безделушки (потрать 1 Припас и получи рычаг или возможность , если это уместно), шикарная одежда и вещи, ключи от флаера, ID на неизвестного человека</t>
   </si>
   <si>
     <t xml:space="preserve">sl4</t>
   </si>
   <si>
-    <t xml:space="preserve">Финансы 1, Припасы 2, наруч с лазерным генератором ( в упор, ближняя, точное ), энергетический щит ( потрать 1 Припас и игнорируй урон от одной атаки ), вакуумные гранаты (потрать 1 Припас; ближняя, бесшумное, площадь ), комбинезон странного кроя, записка твоим почерком «Извини, мне надо это сделать»</t>
+    <t xml:space="preserve">Финансы 1, Припасы 2, наруч с лазерным генератором (в упор, ближняя, точное), энергетический щит (потрать 1 Припас и игнорируй урон от одной атаки), вакуумные гранаты (потрать 1 Припас; ближняя, бесшумное, площадь), комбинезон странного кроя, записка твоим почерком «Извини, мне надо это сделать»</t>
   </si>
   <si>
     <t xml:space="preserve">sl5</t>
   </si>
   <si>
-    <t xml:space="preserve">Финансы 2, Припасы 2, пистолет ( ближняя , штатское ), встроенная медсистема (потрать 1 Припас и сними состояние или 2 Припаса — и Серьёзное), чужие вещи, непонятная документация, странная татуировка, шрам от смертельного ранения.</t>
+    <t xml:space="preserve">Финансы 2, Припасы 2, пистолет (ближняя , штатское), встроенная медсистема (потрать 1 Припас и сними состояние или 2 Припаса — и Серьёзное), чужие вещи, непонятная документация, странная татуировка, шрам от смертельного ранения.</t>
   </si>
   <si>
     <t xml:space="preserve">Наномаска</t>
@@ -1471,7 +1441,7 @@
     <t xml:space="preserve">Усиленный лазерный резак</t>
   </si>
   <si>
-    <t xml:space="preserve">( в упор, ближняя). Потрать 1 Припас, чтобы приобрести до конца боя или сцены любые из тэгов: кровавое, мощное, очередь.</t>
+    <t xml:space="preserve">(в упор, ближняя). Потрать 1 Припас, чтобы приобрести до конца боя или сцены любые из тэгов: кровавое, мощное, очередь.</t>
   </si>
   <si>
     <t xml:space="preserve">Адаптант</t>
@@ -1546,7 +1516,7 @@
     <t xml:space="preserve">Метательный топор</t>
   </si>
   <si>
-    <t xml:space="preserve">( ближняя, мощное ). Потрать 1 Припас для атаки.</t>
+    <t xml:space="preserve">(ближняя, мощное). Потрать 1 Припас для атаки.</t>
   </si>
   <si>
     <t xml:space="preserve">Микстура</t>
@@ -1564,7 +1534,7 @@
     <t xml:space="preserve">Алмазный нож</t>
   </si>
   <si>
-    <t xml:space="preserve">Можешь прессовать такие из графита. Потрать 1 Припас, чтобы использовать в одном бою ( в упор, бесшумное, бронебойное, скрытое) .</t>
+    <t xml:space="preserve">Можешь прессовать такие из графита. Потрать 1 Припас, чтобы использовать в одном бою (в упор, бесшумное, бронебойное, скрытое) .</t>
   </si>
   <si>
     <t xml:space="preserve">Аэропод</t>
@@ -1624,7 +1594,7 @@
     <t xml:space="preserve">Костюм</t>
   </si>
   <si>
-    <t xml:space="preserve">из синташелка с энергощитом ( потрать 1 Припас и игнорируй урон от одной атаки ). Не пачкается и не рвётся</t>
+    <t xml:space="preserve">из синташелка с энергощитом (потрать 1 Припас и игнорируй урон от одной атаки). Не пачкается и не рвётся</t>
   </si>
   <si>
     <t xml:space="preserve">Летающий бот</t>
@@ -1723,7 +1693,7 @@
     <t xml:space="preserve">Органический игломёт</t>
   </si>
   <si>
-    <t xml:space="preserve">( ближняя, бесшумное, скрытое, умное ). Потрать 1 Припас, чтобы игла была отравлена (противник ослабевает и может оказаться парализован).</t>
+    <t xml:space="preserve">(ближняя, бесшумное, скрытое, умное). Потрать 1 Припас, чтобы игла была отравлена (противник ослабевает и может оказаться парализован).</t>
   </si>
   <si>
     <t xml:space="preserve">Священный символ</t>
@@ -1765,7 +1735,7 @@
     <t xml:space="preserve">Плазменный пистолет</t>
   </si>
   <si>
-    <t xml:space="preserve">(ближняя, игнорирует щит, кодированное, точное )</t>
+    <t xml:space="preserve">(ближняя, игнорирует щит, кодированное, точное)</t>
   </si>
   <si>
     <t xml:space="preserve">Импульс-ПП</t>
@@ -1829,7 +1799,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1850,11 +1820,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1899,12 +1864,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1931,11 +1892,11 @@
   </sheetPr>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
@@ -3260,13 +3221,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
@@ -3274,7 +3235,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -3285,7 +3246,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -3296,7 +3257,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -3307,7 +3268,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -3318,7 +3279,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -3329,7 +3290,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -3340,7 +3301,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -3351,7 +3312,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -3362,7 +3323,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -3373,7 +3334,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -3418,7 +3379,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>316</v>
@@ -3462,13 +3423,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,14 +3466,14 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>39</v>
+      <c r="A22" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,14 +3510,14 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
+      <c r="A26" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,13 +3555,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,62 +3599,62 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>318</v>
@@ -3704,7 +3665,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>320</v>
@@ -3715,7 +3676,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>322</v>
@@ -3726,18 +3687,18 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>318</v>
@@ -3748,7 +3709,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>320</v>
@@ -3759,7 +3720,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>322</v>
@@ -3770,18 +3731,18 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>318</v>
@@ -3792,7 +3753,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>320</v>
@@ -3803,7 +3764,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>322</v>
@@ -3814,18 +3775,18 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>318</v>
@@ -3836,7 +3797,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>320</v>
@@ -3847,7 +3808,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>322</v>
@@ -3858,18 +3819,18 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>318</v>
@@ -3880,7 +3841,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>320</v>
@@ -3891,7 +3852,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>322</v>
@@ -3902,18 +3863,18 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>318</v>
@@ -3924,7 +3885,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>320</v>
@@ -3935,7 +3896,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>322</v>
@@ -3946,7 +3907,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>324</v>
@@ -3957,95 +3918,95 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>318</v>
@@ -4056,7 +4017,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>320</v>
@@ -4067,68 +4028,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>322</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4149,14 +4055,14 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C121" activeCellId="0" sqref="C121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4164,16 +4070,16 @@
         <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,16 +4087,16 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,16 +4104,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,19 +4121,19 @@
         <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,19 +4141,19 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,16 +4161,16 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,84 +4178,84 @@
         <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,16 +4263,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,16 +4280,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,16 +4297,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,16 +4314,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,16 +4331,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,16 +4348,16 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,16 +4365,16 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4476,16 +4382,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,16 +4399,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,16 +4416,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,16 +4433,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,16 +4450,16 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,16 +4467,16 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,16 +4484,16 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,16 +4501,16 @@
         <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4612,16 +4518,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4629,16 +4535,16 @@
         <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,16 +4552,16 @@
         <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4663,16 +4569,16 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,16 +4586,16 @@
         <v>64</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4697,16 +4603,16 @@
         <v>64</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,16 +4620,16 @@
         <v>64</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,16 +4637,16 @@
         <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,16 +4654,16 @@
         <v>64</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,16 +4671,16 @@
         <v>77</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,16 +4688,16 @@
         <v>77</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,16 +4705,16 @@
         <v>77</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,16 +4722,16 @@
         <v>77</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,16 +4739,16 @@
         <v>89</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,16 +4756,16 @@
         <v>89</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,16 +4773,16 @@
         <v>89</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4884,16 +4790,16 @@
         <v>89</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4901,16 +4807,16 @@
         <v>89</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4918,16 +4824,16 @@
         <v>89</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,16 +4841,16 @@
         <v>102</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,16 +4858,16 @@
         <v>102</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,16 +4875,16 @@
         <v>102</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4986,16 +4892,16 @@
         <v>102</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,16 +4909,16 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,16 +4926,16 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,16 +4943,16 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,16 +4960,16 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,16 +4977,16 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,16 +4994,16 @@
         <v>114</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5105,16 +5011,16 @@
         <v>114</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,16 +5028,16 @@
         <v>124</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,16 +5045,16 @@
         <v>124</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,16 +5062,16 @@
         <v>124</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,16 +5079,16 @@
         <v>124</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,16 +5096,16 @@
         <v>124</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,16 +5113,16 @@
         <v>143</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,16 +5130,16 @@
         <v>143</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,16 +5147,16 @@
         <v>143</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5258,16 +5164,16 @@
         <v>143</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,16 +5181,16 @@
         <v>155</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5292,16 +5198,16 @@
         <v>155</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,16 +5215,16 @@
         <v>155</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5326,16 +5232,16 @@
         <v>155</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,16 +5249,16 @@
         <v>168</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,16 +5266,16 @@
         <v>168</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,16 +5283,16 @@
         <v>168</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5394,16 +5300,16 @@
         <v>168</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,16 +5317,16 @@
         <v>168</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,16 +5334,16 @@
         <v>168</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,16 +5351,16 @@
         <v>168</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,16 +5368,16 @@
         <v>168</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,16 +5385,16 @@
         <v>181</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,16 +5402,16 @@
         <v>181</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,16 +5419,16 @@
         <v>181</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5530,16 +5436,16 @@
         <v>181</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,16 +5453,16 @@
         <v>181</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,16 +5470,16 @@
         <v>181</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,16 +5487,16 @@
         <v>181</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,16 +5504,16 @@
         <v>194</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5615,16 +5521,16 @@
         <v>194</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,16 +5538,16 @@
         <v>194</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5649,16 +5555,16 @@
         <v>194</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,16 +5572,16 @@
         <v>207</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,16 +5589,16 @@
         <v>207</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5700,16 +5606,16 @@
         <v>207</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,16 +5623,16 @@
         <v>207</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,16 +5640,16 @@
         <v>207</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,16 +5657,16 @@
         <v>207</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,16 +5674,16 @@
         <v>219</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,16 +5691,16 @@
         <v>219</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5802,16 +5708,16 @@
         <v>219</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,16 +5725,16 @@
         <v>219</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,16 +5742,16 @@
         <v>219</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,16 +5759,16 @@
         <v>219</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,16 +5776,16 @@
         <v>232</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,16 +5793,16 @@
         <v>232</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,16 +5810,16 @@
         <v>232</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,16 +5827,16 @@
         <v>232</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5938,16 +5844,16 @@
         <v>244</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,16 +5861,16 @@
         <v>244</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,16 +5878,16 @@
         <v>244</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5989,16 +5895,16 @@
         <v>244</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6006,16 +5912,16 @@
         <v>244</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,16 +5929,16 @@
         <v>255</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,16 +5946,16 @@
         <v>255</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,16 +5963,16 @@
         <v>255</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6074,16 +5980,16 @@
         <v>255</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,16 +5997,16 @@
         <v>255</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,16 +6014,16 @@
         <v>265</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,16 +6031,16 @@
         <v>265</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,16 +6048,16 @@
         <v>265</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6159,16 +6065,16 @@
         <v>265</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,16 +6082,16 @@
         <v>277</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6193,16 +6099,16 @@
         <v>277</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6210,16 +6116,16 @@
         <v>277</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,16 +6133,16 @@
         <v>277</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,16 +6150,16 @@
         <v>277</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,16 +6167,16 @@
         <v>277</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6278,16 +6184,16 @@
         <v>277</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6312,35 +6218,35 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,7 +6296,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="0" t="n">

--- a/tools/comp_import.xlsx
+++ b/tools/comp_import.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="origins" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="clusters" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="equips" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="start_equips" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="res" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="tags" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="681">
   <si>
     <t xml:space="preserve">noble_female</t>
   </si>
@@ -895,132 +896,168 @@
     <t xml:space="preserve">ты работаешь на клан, потому что он помог тебе с тем, с чем ты сама не справилась. Что или кто преследует тебя? Почему? На каких условиях ты в клане?</t>
   </si>
   <si>
+    <t xml:space="preserve">keyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adana_empire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Адана (Империя)</t>
   </si>
   <si>
     <t xml:space="preserve">ледяной мир, синяя кожа, технологичность</t>
   </si>
   <si>
+    <t xml:space="preserve">acosta_empire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Акоста (Империя)</t>
   </si>
   <si>
     <t xml:space="preserve">изящество, культурный лидер, интриги и дуэли</t>
   </si>
   <si>
+    <t xml:space="preserve">aluat_empire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Алуат (Империя)</t>
   </si>
   <si>
     <t xml:space="preserve">гармония, сельское хозяйство, традиционализм</t>
   </si>
   <si>
+    <t xml:space="preserve">ankhil_empire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Анхил (Империя)</t>
   </si>
   <si>
     <t xml:space="preserve">опальный, связь с криминалом, индустриальный</t>
   </si>
   <si>
+    <t xml:space="preserve">astor_empire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Астор (Империя)</t>
   </si>
   <si>
     <t xml:space="preserve">правящий, благополучный, влиятельный</t>
   </si>
   <si>
+    <t xml:space="preserve">degas_rossa_empire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дега Росса (Империя)</t>
   </si>
   <si>
     <t xml:space="preserve">амбициозный, молодой, транспортный хаб</t>
   </si>
   <si>
+    <t xml:space="preserve">baron_of_the_castonian_mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">Барон Кастонианской марки</t>
   </si>
   <si>
     <t xml:space="preserve">феодализм, гордость, свобода</t>
   </si>
   <si>
+    <t xml:space="preserve">noble_of_the_shogun_clan_on_tao_prime</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дворянин сёгуна клана на Тао Прайм</t>
   </si>
   <si>
     <t xml:space="preserve">традиции, импланты, честь</t>
   </si>
   <si>
+    <t xml:space="preserve">approximate_emir_on_elkhali</t>
+  </si>
+  <si>
     <t xml:space="preserve">Приближённый эмира на Эльхали</t>
   </si>
   <si>
     <t xml:space="preserve">религиозность, биотехнологии, иерархичность</t>
   </si>
   <si>
+    <t xml:space="preserve">small_House</t>
+  </si>
+  <si>
     <t xml:space="preserve">Малый Дом</t>
   </si>
   <si>
     <t xml:space="preserve">в Империи и вне</t>
   </si>
   <si>
+    <t xml:space="preserve">crimson_lotus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Багровый лотос</t>
   </si>
   <si>
     <t xml:space="preserve">«Смерть не является оправданием»</t>
   </si>
   <si>
+    <t xml:space="preserve">steel_crane</t>
+  </si>
+  <si>
     <t xml:space="preserve">Стальной журавль</t>
   </si>
   <si>
     <t xml:space="preserve">«Честь превыше Жизни»</t>
   </si>
   <si>
+    <t xml:space="preserve">black_fox</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чёрный лис</t>
   </si>
   <si>
     <t xml:space="preserve">«Всё имеет свою цену»</t>
   </si>
   <si>
+    <t xml:space="preserve">empire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Империя</t>
   </si>
   <si>
     <t xml:space="preserve">аристократия, традиции, забота</t>
   </si>
   <si>
+    <t xml:space="preserve">federation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Федерация</t>
   </si>
   <si>
     <t xml:space="preserve">корпорации, рейтинг граждан, свобода</t>
   </si>
   <si>
+    <t xml:space="preserve">independent_worlds</t>
+  </si>
+  <si>
     <t xml:space="preserve">Независимые миры</t>
   </si>
   <si>
     <t xml:space="preserve">разнообразные, самобытные, недоверие</t>
   </si>
   <si>
+    <t xml:space="preserve">borderland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Пограничье</t>
   </si>
   <si>
     <t xml:space="preserve">война с Машиной, всё на фронт, дисциплина</t>
   </si>
   <si>
-    <t xml:space="preserve">Ершалаим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лидирующая, дипломатия, надёжность во всём</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Магадон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">биотехнологии, соц. Технологии, доступность во всём</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Висдегри</t>
-  </si>
-  <si>
-    <t xml:space="preserve">транспорт, логистика, исследование космоса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юнити</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дерзкая, передовые технологии, масс-медиа</t>
-  </si>
-  <si>
     <t xml:space="preserve">Встроенный моноклинок</t>
   </si>
   <si>
@@ -1790,6 +1827,246 @@
   </si>
   <si>
     <t xml:space="preserve">прибыль тек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бесшумное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не производит шума.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armor-piercing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бронебойное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">может игнорировать защиту от Грани «Броня» или эффективно нейтрализовать её.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sealed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Герметичное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">способно защитить пользователя от агрессивной окружающей среды: вакуума, воды и т.д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дистанция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">определяет предельную дальность эффективности оружия и снаряжения: &lt;ul class=\"uqip-tags\"&gt;&lt;li&gt;&lt;b&gt;в упор:&lt;/b&gt; для атаки цели в ближнем бою;&lt;/li&gt;&lt;li&gt;&lt;b&gt;ближняя:&lt;/b&gt; для атаки цели, находящейся в пределах пары десятков метров;&lt;/li&gt;&lt;li&gt;&lt;b&gt;дальняя:&lt;/b&gt; для атаки цели, находящейся в сотнях метров, а иногда и далее.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignores-shields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игнорирует щиты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">полностью игнорирует эффект защиты от любых типов энергетических щитов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кодированное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">применять может только зарегистрированный пользователь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кровавое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">наносит особо страшные раны, буквально разрывая противника на части. Может вгонять в панику.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legendary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Легендарное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предмет с богатой историей, его легко узнать. У многих к нему особое отношение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">better-than-before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лучше прежнего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предмет определённо лучше аналогичного, которым герой сейчас пользуется. Чем-то. Когда герой начинает пользоваться им, данный тег исчезает. Он нужен только для кинематографичности: чтобы, например, герой после боя мог взять трофейную крутую пушку, не погружаясь в детали, чем она лучше.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маскировка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пользователь невидим, пока не совершает резких движений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powerful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эффективно разрушает предметы обстановки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-lethal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нелетальное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не наносит долговременного вреда и не может убить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-lethal-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нелетальный режим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">переключается между обычным типом атаки и нелетальным.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нестандартное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">необычное управление или форма, к которым надо приноровиться прежде, чем использовать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Площадное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">может бить по площадям или воздействовать на большие территории.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dangerous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опасное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">при неаккуратном использовании легко навредить себе или союзникам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Очередь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">когда Бросаешься в атаку, потрать Припас, чтобы заставить противника залечь. Может повреждать Грань «Толпа» и не тратит времени, повреждая Грань «Группа».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programmable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Программируемое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">даёт возможность поразить цель за укрытием и вне прямой видимости.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anti-tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Противотанковое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">способно нейтрализовывать и повреждать Грань «Бронетехника».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скрытое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предмет может быть спрятан или замаскирован, без специального досмотра его нельзя обнаружить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">даёт возможность поразить маленькую цель.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тяжёлое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">атака с этим оружием тратит 1 Припас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">можно использовать разные типы боеприпасов или зарядов. Типы иногда указаны в описании, а иногда это оставлено на ваше решение. Чтобы достать нужный комплект, нужно потратить 1 Припас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valuable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ценное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предмет чем-то ценен или дорого стоит.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чуждое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сделано совершенно иной культурой. Непонятно, как им пользоваться, или даже что это.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civilian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Штатское</t>
+  </si>
+  <si>
+    <t xml:space="preserve">допустимо к открытому ношению, есть лицензия.</t>
   </si>
 </sst>
 </file>
@@ -1864,13 +2141,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1892,11 +2173,11 @@
   </sheetPr>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
@@ -3221,821 +3502,229 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>13</v>
+      <c r="A11" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>326</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>332</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>335</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>341</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>317</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>319</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>321</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>323</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4055,11 +3744,11 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.45"/>
@@ -4070,16 +3759,16 @@
         <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,16 +3776,16 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4104,16 +3793,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,19 +3810,19 @@
         <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4141,19 +3830,19 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4161,16 +3850,16 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4178,16 +3867,16 @@
         <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,16 +3884,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4212,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,16 +3918,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,16 +3935,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,16 +3952,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,16 +3969,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,16 +3986,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,16 +4003,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,16 +4020,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4348,16 +4037,16 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,16 +4054,16 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,16 +4071,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,16 +4088,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,16 +4105,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,16 +4122,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,16 +4139,16 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4467,16 +4156,16 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,16 +4173,16 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4501,16 +4190,16 @@
         <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,16 +4207,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,16 +4224,16 @@
         <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,16 +4241,16 @@
         <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4569,16 +4258,16 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,16 +4275,16 @@
         <v>64</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,16 +4292,16 @@
         <v>64</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,16 +4309,16 @@
         <v>64</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,16 +4326,16 @@
         <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,16 +4343,16 @@
         <v>64</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,16 +4360,16 @@
         <v>77</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,16 +4377,16 @@
         <v>77</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,16 +4394,16 @@
         <v>77</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,16 +4411,16 @@
         <v>77</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,16 +4428,16 @@
         <v>89</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,16 +4445,16 @@
         <v>89</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,16 +4462,16 @@
         <v>89</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,16 +4479,16 @@
         <v>89</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4807,16 +4496,16 @@
         <v>89</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,16 +4513,16 @@
         <v>89</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4841,16 +4530,16 @@
         <v>102</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4858,16 +4547,16 @@
         <v>102</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,16 +4564,16 @@
         <v>102</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,16 +4581,16 @@
         <v>102</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4909,16 +4598,16 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,16 +4615,16 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,16 +4632,16 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,16 +4649,16 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,16 +4666,16 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,16 +4683,16 @@
         <v>114</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,16 +4700,16 @@
         <v>114</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,16 +4717,16 @@
         <v>124</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,16 +4734,16 @@
         <v>124</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,16 +4751,16 @@
         <v>124</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5079,16 +4768,16 @@
         <v>124</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,16 +4785,16 @@
         <v>124</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,16 +4802,16 @@
         <v>143</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,16 +4819,16 @@
         <v>143</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,16 +4836,16 @@
         <v>143</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5164,16 +4853,16 @@
         <v>143</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,16 +4870,16 @@
         <v>155</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,16 +4887,16 @@
         <v>155</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,16 +4904,16 @@
         <v>155</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,16 +4921,16 @@
         <v>155</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5249,16 +4938,16 @@
         <v>168</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5266,16 +4955,16 @@
         <v>168</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,16 +4972,16 @@
         <v>168</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,16 +4989,16 @@
         <v>168</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,16 +5006,16 @@
         <v>168</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,16 +5023,16 @@
         <v>168</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,16 +5040,16 @@
         <v>168</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,16 +5057,16 @@
         <v>168</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,16 +5074,16 @@
         <v>181</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,16 +5091,16 @@
         <v>181</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,16 +5108,16 @@
         <v>181</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,16 +5125,16 @@
         <v>181</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,16 +5142,16 @@
         <v>181</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5470,16 +5159,16 @@
         <v>181</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5487,16 +5176,16 @@
         <v>181</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,16 +5193,16 @@
         <v>194</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,16 +5210,16 @@
         <v>194</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,16 +5227,16 @@
         <v>194</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,16 +5244,16 @@
         <v>194</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,16 +5261,16 @@
         <v>207</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5589,16 +5278,16 @@
         <v>207</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5606,16 +5295,16 @@
         <v>207</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,16 +5312,16 @@
         <v>207</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,16 +5329,16 @@
         <v>207</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,16 +5346,16 @@
         <v>207</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5674,16 +5363,16 @@
         <v>219</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,16 +5380,16 @@
         <v>219</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,16 +5397,16 @@
         <v>219</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,16 +5414,16 @@
         <v>219</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,16 +5431,16 @@
         <v>219</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,16 +5448,16 @@
         <v>219</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,16 +5465,16 @@
         <v>232</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,16 +5482,16 @@
         <v>232</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,16 +5499,16 @@
         <v>232</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5827,16 +5516,16 @@
         <v>232</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,16 +5533,16 @@
         <v>244</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,16 +5550,16 @@
         <v>244</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,16 +5567,16 @@
         <v>244</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5895,16 +5584,16 @@
         <v>244</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5912,16 +5601,16 @@
         <v>244</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,16 +5618,16 @@
         <v>255</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,16 +5635,16 @@
         <v>255</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,16 +5652,16 @@
         <v>255</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,16 +5669,16 @@
         <v>255</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,16 +5686,16 @@
         <v>255</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6014,16 +5703,16 @@
         <v>265</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,16 +5720,16 @@
         <v>265</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,16 +5737,16 @@
         <v>265</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,16 +5754,16 @@
         <v>265</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,16 +5771,16 @@
         <v>277</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,16 +5788,16 @@
         <v>277</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,16 +5805,16 @@
         <v>277</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6133,16 +5822,16 @@
         <v>277</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,16 +5839,16 @@
         <v>277</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,16 +5856,16 @@
         <v>277</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,16 +5873,16 @@
         <v>277</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6218,7 +5907,7 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.56"/>
@@ -6228,25 +5917,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6776,6 +6465,412 @@
       </c>
       <c r="G24" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="68.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/tools/comp_import.xlsx
+++ b/tools/comp_import.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="origins" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="clusters" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="start_equips" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="res" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="tags" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="tags" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="686">
   <si>
     <t xml:space="preserve">noble_female</t>
   </si>
@@ -1058,6 +1057,42 @@
     <t xml:space="preserve">война с Машиной, всё на фронт, дисциплина</t>
   </si>
   <si>
+    <t xml:space="preserve">yershalaim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ершалаим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лидирующая, дипломатия, надёжность во всём</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magadon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Магадон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">биотехнологии, соц. Технологии, доступность во всём</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visdegri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Висдегри</t>
+  </si>
+  <si>
+    <t xml:space="preserve">транспорт, логистика, исследование космоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юнити</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дерзкая, передовые технологии, масс-медиа</t>
+  </si>
+  <si>
     <t xml:space="preserve">Встроенный моноклинок</t>
   </si>
   <si>
@@ -1808,27 +1843,6 @@
     <t xml:space="preserve">Потрать 1 Припас и измени данные, создав себе новую личность</t>
   </si>
   <si>
-    <t xml:space="preserve">playbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">припасы макс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">припасы тек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">финансы макс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">фин тек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">прибыль макс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">прибыль тек</t>
-  </si>
-  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
@@ -1841,7 +1855,7 @@
     <t xml:space="preserve">Бесшумное</t>
   </si>
   <si>
-    <t xml:space="preserve">не производит шума.</t>
+    <t xml:space="preserve">Не производит шума.</t>
   </si>
   <si>
     <t xml:space="preserve">armor-piercing</t>
@@ -1850,7 +1864,7 @@
     <t xml:space="preserve">Бронебойное</t>
   </si>
   <si>
-    <t xml:space="preserve">может игнорировать защиту от Грани «Броня» или эффективно нейтрализовать её.</t>
+    <t xml:space="preserve">Может игнорировать защиту от Грани «Броня» или эффективно нейтрализовать её.</t>
   </si>
   <si>
     <t xml:space="preserve">sealed</t>
@@ -1859,7 +1873,7 @@
     <t xml:space="preserve">Герметичное</t>
   </si>
   <si>
-    <t xml:space="preserve">способно защитить пользователя от агрессивной окружающей среды: вакуума, воды и т.д.</t>
+    <t xml:space="preserve">Способно защитить пользователя от агрессивной окружающей среды: вакуума, воды и т.д.</t>
   </si>
   <si>
     <t xml:space="preserve">distance</t>
@@ -1868,7 +1882,7 @@
     <t xml:space="preserve">Дистанция</t>
   </si>
   <si>
-    <t xml:space="preserve">определяет предельную дальность эффективности оружия и снаряжения: &lt;ul class=\"uqip-tags\"&gt;&lt;li&gt;&lt;b&gt;в упор:&lt;/b&gt; для атаки цели в ближнем бою;&lt;/li&gt;&lt;li&gt;&lt;b&gt;ближняя:&lt;/b&gt; для атаки цели, находящейся в пределах пары десятков метров;&lt;/li&gt;&lt;li&gt;&lt;b&gt;дальняя:&lt;/b&gt; для атаки цели, находящейся в сотнях метров, а иногда и далее.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t xml:space="preserve">Определяет предельную дальность эффективности оружия и снаряжения: &lt;ul class=\"uqip-tags\"&gt;&lt;li&gt;&lt;b&gt;в упор:&lt;/b&gt; для атаки цели в ближнем бою;&lt;/li&gt;&lt;li&gt;&lt;b&gt;ближняя:&lt;/b&gt; для атаки цели, находящейся в пределах пары десятков метров;&lt;/li&gt;&lt;li&gt;&lt;b&gt;дальняя:&lt;/b&gt; для атаки цели, находящейся в сотнях метров, а иногда и далее.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Ignores-shields</t>
@@ -1877,7 +1891,7 @@
     <t xml:space="preserve">Игнорирует щиты</t>
   </si>
   <si>
-    <t xml:space="preserve">полностью игнорирует эффект защиты от любых типов энергетических щитов.</t>
+    <t xml:space="preserve">Полностью игнорирует эффект защиты от любых типов энергетических щитов.</t>
   </si>
   <si>
     <t xml:space="preserve">coded</t>
@@ -1886,7 +1900,7 @@
     <t xml:space="preserve">Кодированное</t>
   </si>
   <si>
-    <t xml:space="preserve">применять может только зарегистрированный пользователь.</t>
+    <t xml:space="preserve">Применять может только зарегистрированный пользователь.</t>
   </si>
   <si>
     <t xml:space="preserve">bloody</t>
@@ -1895,7 +1909,7 @@
     <t xml:space="preserve">Кровавое</t>
   </si>
   <si>
-    <t xml:space="preserve">наносит особо страшные раны, буквально разрывая противника на части. Может вгонять в панику.</t>
+    <t xml:space="preserve">Наносит особо страшные раны, буквально разрывая противника на части. Может вгонять в панику.</t>
   </si>
   <si>
     <t xml:space="preserve">legendary</t>
@@ -1904,7 +1918,7 @@
     <t xml:space="preserve">Легендарное</t>
   </si>
   <si>
-    <t xml:space="preserve">предмет с богатой историей, его легко узнать. У многих к нему особое отношение.</t>
+    <t xml:space="preserve">Предмет с богатой историей, его легко узнать. У многих к нему особое отношение.</t>
   </si>
   <si>
     <t xml:space="preserve">better-than-before</t>
@@ -1913,7 +1927,7 @@
     <t xml:space="preserve">Лучше прежнего</t>
   </si>
   <si>
-    <t xml:space="preserve">предмет определённо лучше аналогичного, которым герой сейчас пользуется. Чем-то. Когда герой начинает пользоваться им, данный тег исчезает. Он нужен только для кинематографичности: чтобы, например, герой после боя мог взять трофейную крутую пушку, не погружаясь в детали, чем она лучше.</t>
+    <t xml:space="preserve">Предмет определённо лучше аналогичного, которым герой сейчас пользуется. Чем-то. Когда герой начинает пользоваться им, данный тег исчезает. Он нужен только для кинематографичности: чтобы, например, герой после боя мог взять трофейную крутую пушку, не погружаясь в детали, чем она лучше.</t>
   </si>
   <si>
     <t xml:space="preserve">disguise</t>
@@ -1922,7 +1936,7 @@
     <t xml:space="preserve">Маскировка</t>
   </si>
   <si>
-    <t xml:space="preserve">пользователь невидим, пока не совершает резких движений.</t>
+    <t xml:space="preserve">Пользователь невидим, пока не совершает резких движений.</t>
   </si>
   <si>
     <t xml:space="preserve">powerful</t>
@@ -1931,7 +1945,7 @@
     <t xml:space="preserve">Мощное</t>
   </si>
   <si>
-    <t xml:space="preserve">эффективно разрушает предметы обстановки.</t>
+    <t xml:space="preserve">Эффективно разрушает предметы обстановки.</t>
   </si>
   <si>
     <t xml:space="preserve">non-lethal</t>
@@ -1940,7 +1954,7 @@
     <t xml:space="preserve">Нелетальное</t>
   </si>
   <si>
-    <t xml:space="preserve">не наносит долговременного вреда и не может убить.</t>
+    <t xml:space="preserve">Не наносит долговременного вреда и не может убить.</t>
   </si>
   <si>
     <t xml:space="preserve">non-lethal-mode</t>
@@ -1949,7 +1963,7 @@
     <t xml:space="preserve">Нелетальный режим</t>
   </si>
   <si>
-    <t xml:space="preserve">переключается между обычным типом атаки и нелетальным.</t>
+    <t xml:space="preserve">Переключается между обычным типом атаки и нелетальным.</t>
   </si>
   <si>
     <t xml:space="preserve">non-standard</t>
@@ -1958,7 +1972,7 @@
     <t xml:space="preserve">Нестандартное</t>
   </si>
   <si>
-    <t xml:space="preserve">необычное управление или форма, к которым надо приноровиться прежде, чем использовать.</t>
+    <t xml:space="preserve">Необычное управление или форма, к которым надо приноровиться прежде, чем использовать.</t>
   </si>
   <si>
     <t xml:space="preserve">areal</t>
@@ -1967,7 +1981,7 @@
     <t xml:space="preserve">Площадное</t>
   </si>
   <si>
-    <t xml:space="preserve">может бить по площадям или воздействовать на большие территории.</t>
+    <t xml:space="preserve">Может бить по площадям или воздействовать на большие территории.</t>
   </si>
   <si>
     <t xml:space="preserve">dangerous</t>
@@ -1976,7 +1990,7 @@
     <t xml:space="preserve">Опасное</t>
   </si>
   <si>
-    <t xml:space="preserve">при неаккуратном использовании легко навредить себе или союзникам.</t>
+    <t xml:space="preserve">При неаккуратном использовании легко навредить себе или союзникам.</t>
   </si>
   <si>
     <t xml:space="preserve">queue</t>
@@ -1985,7 +1999,7 @@
     <t xml:space="preserve">Очередь</t>
   </si>
   <si>
-    <t xml:space="preserve">когда Бросаешься в атаку, потрать Припас, чтобы заставить противника залечь. Может повреждать Грань «Толпа» и не тратит времени, повреждая Грань «Группа».</t>
+    <t xml:space="preserve">Когда Бросаешься в атаку, потрать Припас, чтобы заставить противника залечь. Может повреждать Грань «Толпа» и не тратит времени, повреждая Грань «Группа».</t>
   </si>
   <si>
     <t xml:space="preserve">programmable</t>
@@ -1994,7 +2008,7 @@
     <t xml:space="preserve">Программируемое</t>
   </si>
   <si>
-    <t xml:space="preserve">даёт возможность поразить цель за укрытием и вне прямой видимости.</t>
+    <t xml:space="preserve">Даёт возможность поразить цель за укрытием и вне прямой видимости.</t>
   </si>
   <si>
     <t xml:space="preserve">anti-tank</t>
@@ -2003,7 +2017,7 @@
     <t xml:space="preserve">Противотанковое</t>
   </si>
   <si>
-    <t xml:space="preserve">способно нейтрализовывать и повреждать Грань «Бронетехника».</t>
+    <t xml:space="preserve">Способно нейтрализовывать и повреждать Грань «Бронетехника».</t>
   </si>
   <si>
     <t xml:space="preserve">hidden</t>
@@ -2012,7 +2026,7 @@
     <t xml:space="preserve">Скрытое</t>
   </si>
   <si>
-    <t xml:space="preserve">предмет может быть спрятан или замаскирован, без специального досмотра его нельзя обнаружить.</t>
+    <t xml:space="preserve">Предмет может быть спрятан или замаскирован, без специального досмотра его нельзя обнаружить.</t>
   </si>
   <si>
     <t xml:space="preserve">precise</t>
@@ -2021,7 +2035,7 @@
     <t xml:space="preserve">Точное</t>
   </si>
   <si>
-    <t xml:space="preserve">даёт возможность поразить маленькую цель.</t>
+    <t xml:space="preserve">Даёт возможность поразить маленькую цель.</t>
   </si>
   <si>
     <t xml:space="preserve">heavy</t>
@@ -2030,7 +2044,7 @@
     <t xml:space="preserve">Тяжёлое</t>
   </si>
   <si>
-    <t xml:space="preserve">атака с этим оружием тратит 1 Припас.</t>
+    <t xml:space="preserve">Атака с этим оружием тратит 1 Припас.</t>
   </si>
   <si>
     <t xml:space="preserve">smart</t>
@@ -2039,7 +2053,7 @@
     <t xml:space="preserve">Умное</t>
   </si>
   <si>
-    <t xml:space="preserve">можно использовать разные типы боеприпасов или зарядов. Типы иногда указаны в описании, а иногда это оставлено на ваше решение. Чтобы достать нужный комплект, нужно потратить 1 Припас.</t>
+    <t xml:space="preserve">Можно использовать разные типы боеприпасов или зарядов. Типы иногда указаны в описании, а иногда это оставлено на ваше решение. Чтобы достать нужный комплект, нужно потратить 1 Припас.</t>
   </si>
   <si>
     <t xml:space="preserve">valuable</t>
@@ -2048,7 +2062,7 @@
     <t xml:space="preserve">Ценное</t>
   </si>
   <si>
-    <t xml:space="preserve">предмет чем-то ценен или дорого стоит.</t>
+    <t xml:space="preserve">Предмет чем-то ценен или дорого стоит.</t>
   </si>
   <si>
     <t xml:space="preserve">alien</t>
@@ -2057,7 +2071,7 @@
     <t xml:space="preserve">Чуждое</t>
   </si>
   <si>
-    <t xml:space="preserve">сделано совершенно иной культурой. Непонятно, как им пользоваться, или даже что это.</t>
+    <t xml:space="preserve">Сделано совершенно иной культурой. Непонятно, как им пользоваться, или даже что это.</t>
   </si>
   <si>
     <t xml:space="preserve">civilian</t>
@@ -2066,7 +2080,7 @@
     <t xml:space="preserve">Штатское</t>
   </si>
   <si>
-    <t xml:space="preserve">допустимо к открытому ношению, есть лицензия.</t>
+    <t xml:space="preserve">Допустимо к открытому ношению, есть лицензия.</t>
   </si>
 </sst>
 </file>
@@ -2173,11 +2187,11 @@
   </sheetPr>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C94" activeCellId="0" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
@@ -3504,13 +3518,13 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -3714,8 +3728,49 @@
         <v>343</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
@@ -3744,11 +3799,11 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.45"/>
@@ -3759,16 +3814,16 @@
         <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,16 +3831,16 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,16 +3848,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,19 +3865,19 @@
         <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,19 +3885,19 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3850,16 +3905,16 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,16 +3922,16 @@
         <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,16 +3939,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,16 +3956,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,16 +3973,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,16 +3990,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,16 +4007,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,16 +4024,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,16 +4041,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,16 +4058,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4020,16 +4075,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,16 +4092,16 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,16 +4109,16 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4071,16 +4126,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,16 +4143,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4105,16 +4160,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,16 +4177,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4139,16 +4194,16 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,16 +4211,16 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,16 +4228,16 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,16 +4245,16 @@
         <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,16 +4262,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,16 +4279,16 @@
         <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,16 +4296,16 @@
         <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,16 +4313,16 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,16 +4330,16 @@
         <v>64</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,16 +4347,16 @@
         <v>64</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,16 +4364,16 @@
         <v>64</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,16 +4381,16 @@
         <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4343,16 +4398,16 @@
         <v>64</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,16 +4415,16 @@
         <v>77</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,16 +4432,16 @@
         <v>77</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,16 +4449,16 @@
         <v>77</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,16 +4466,16 @@
         <v>77</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,16 +4483,16 @@
         <v>89</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,16 +4500,16 @@
         <v>89</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,16 +4517,16 @@
         <v>89</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,16 +4534,16 @@
         <v>89</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,16 +4551,16 @@
         <v>89</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4513,16 +4568,16 @@
         <v>89</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,16 +4585,16 @@
         <v>102</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4547,16 +4602,16 @@
         <v>102</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,16 +4619,16 @@
         <v>102</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,16 +4636,16 @@
         <v>102</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,16 +4653,16 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,16 +4670,16 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,16 +4687,16 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,16 +4704,16 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4666,16 +4721,16 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,16 +4738,16 @@
         <v>114</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4700,16 +4755,16 @@
         <v>114</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,16 +4772,16 @@
         <v>124</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,16 +4789,16 @@
         <v>124</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4751,16 +4806,16 @@
         <v>124</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,16 +4823,16 @@
         <v>124</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,16 +4840,16 @@
         <v>124</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,16 +4857,16 @@
         <v>143</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,16 +4874,16 @@
         <v>143</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,16 +4891,16 @@
         <v>143</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,16 +4908,16 @@
         <v>143</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,16 +4925,16 @@
         <v>155</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,16 +4942,16 @@
         <v>155</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,16 +4959,16 @@
         <v>155</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,16 +4976,16 @@
         <v>155</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,16 +4993,16 @@
         <v>168</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,16 +5010,16 @@
         <v>168</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4972,16 +5027,16 @@
         <v>168</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,16 +5044,16 @@
         <v>168</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,16 +5061,16 @@
         <v>168</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,16 +5078,16 @@
         <v>168</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,16 +5095,16 @@
         <v>168</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,16 +5112,16 @@
         <v>168</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,16 +5129,16 @@
         <v>181</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,16 +5146,16 @@
         <v>181</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5108,16 +5163,16 @@
         <v>181</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,16 +5180,16 @@
         <v>181</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,16 +5197,16 @@
         <v>181</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,16 +5214,16 @@
         <v>181</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,16 +5231,16 @@
         <v>181</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,16 +5248,16 @@
         <v>194</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5210,16 +5265,16 @@
         <v>194</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,16 +5282,16 @@
         <v>194</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5244,16 +5299,16 @@
         <v>194</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,16 +5316,16 @@
         <v>207</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,16 +5333,16 @@
         <v>207</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5295,16 +5350,16 @@
         <v>207</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,16 +5367,16 @@
         <v>207</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,16 +5384,16 @@
         <v>207</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5346,16 +5401,16 @@
         <v>207</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5363,16 +5418,16 @@
         <v>219</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,16 +5435,16 @@
         <v>219</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,16 +5452,16 @@
         <v>219</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,16 +5469,16 @@
         <v>219</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,16 +5486,16 @@
         <v>219</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,16 +5503,16 @@
         <v>219</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,16 +5520,16 @@
         <v>232</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5482,16 +5537,16 @@
         <v>232</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,16 +5554,16 @@
         <v>232</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,16 +5571,16 @@
         <v>232</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5533,16 +5588,16 @@
         <v>244</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5550,16 +5605,16 @@
         <v>244</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,16 +5622,16 @@
         <v>244</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,16 +5639,16 @@
         <v>244</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,16 +5656,16 @@
         <v>244</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5618,16 +5673,16 @@
         <v>255</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,16 +5690,16 @@
         <v>255</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5652,16 +5707,16 @@
         <v>255</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,16 +5724,16 @@
         <v>255</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,16 +5741,16 @@
         <v>255</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5703,16 +5758,16 @@
         <v>265</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,16 +5775,16 @@
         <v>265</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5737,16 +5792,16 @@
         <v>265</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5754,16 +5809,16 @@
         <v>265</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,16 +5826,16 @@
         <v>277</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,16 +5843,16 @@
         <v>277</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,16 +5860,16 @@
         <v>277</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,16 +5877,16 @@
         <v>277</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,16 +5894,16 @@
         <v>277</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,16 +5911,16 @@
         <v>277</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,16 +5928,16 @@
         <v>277</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5901,976 +5956,394 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="68.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>595</v>
+        <v>290</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>596</v>
+        <v>291</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>600</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
+      <c r="A4" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="68.48"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>602</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/tools/comp_import.xlsx
+++ b/tools/comp_import.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="695">
   <si>
     <t xml:space="preserve">noble_female</t>
   </si>
@@ -1876,16 +1876,7 @@
     <t xml:space="preserve">Способно защитить пользователя от агрессивной окружающей среды: вакуума, воды и т.д.</t>
   </si>
   <si>
-    <t xml:space="preserve">distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дистанция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Определяет предельную дальность эффективности оружия и снаряжения: &lt;ul class=\"uqip-tags\"&gt;&lt;li&gt;&lt;b&gt;в упор:&lt;/b&gt; для атаки цели в ближнем бою;&lt;/li&gt;&lt;li&gt;&lt;b&gt;ближняя:&lt;/b&gt; для атаки цели, находящейся в пределах пары десятков метров;&lt;/li&gt;&lt;li&gt;&lt;b&gt;дальняя:&lt;/b&gt; для атаки цели, находящейся в сотнях метров, а иногда и далее.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignores-shields</t>
+    <t xml:space="preserve">ignores-shields</t>
   </si>
   <si>
     <t xml:space="preserve">Игнорирует щиты</t>
@@ -2081,6 +2072,42 @@
   </si>
   <si>
     <t xml:space="preserve">Допустимо к открытому ношению, есть лицензия.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance_pointblank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дистанция: в упор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определяет предельную дальность эффективности оружия и снаряжения для атаки цели в ближнем бою.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance_melee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дистанция: ближняя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определяет предельную дальность эффективности оружия и снаряжения для атаки цели, находящейся в пределах пары десятков метров.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дистанция: дальняя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определяет предельную дальность эффективности оружия и снаряжения для атаки цели, находящейся в сотнях метров, а иногда и далее.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two-handed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двуручное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для использования необходимо держать в двух руках.</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2111,6 +2138,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2155,7 +2187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2166,6 +2198,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2191,7 +2227,7 @@
       <selection pane="topLeft" activeCell="C94" activeCellId="0" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
@@ -3522,7 +3558,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
@@ -3803,7 +3839,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.45"/>
@@ -5956,13 +5992,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="68.47"/>
@@ -6336,7 +6372,7 @@
       <c r="A27" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>683</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -6344,6 +6380,48 @@
       </c>
       <c r="D27" s="0" t="s">
         <v>685</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/tools/comp_import.xlsx
+++ b/tools/comp_import.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="origins" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="clusters" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="start_equips" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="tags" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="equipments" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -2117,7 +2118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2138,11 +2139,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2187,7 +2183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2198,10 +2194,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2227,7 +2219,7 @@
       <selection pane="topLeft" activeCell="C94" activeCellId="0" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
@@ -3558,7 +3550,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
@@ -3835,11 +3827,11 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.45"/>
@@ -5994,11 +5986,11 @@
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="68.47"/>
@@ -6372,7 +6364,7 @@
       <c r="A27" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>683</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -6386,7 +6378,7 @@
       <c r="A28" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>686</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -6433,4 +6425,27 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>